--- a/raw_data/Macroeconomic data.xlsx
+++ b/raw_data/Macroeconomic data.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Rauhut\Documents\GitHub\MachineLearning\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46031FBD-A87B-4917-8D93-9D5684CAE64A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC215C2-16B6-485E-8E8D-64643FEC7555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Macroeconomic Values" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Overview " sheetId="3" r:id="rId1"/>
+    <sheet name="Macroeconomic Values" sheetId="2" r:id="rId2"/>
+    <sheet name="Drawn Data Bloomberg" sheetId="1" r:id="rId3"/>
+    <sheet name="Other Ressources" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$S$12:$AD$3666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Drawn Data Bloomberg'!$S$12:$AD$3666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Other Ressources'!$AN$35:$AU$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +124,539 @@
   <si>
     <t>Bloomberg Data (downloaded on 31th of March)</t>
   </si>
+  <si>
+    <t>Übersicht Makroökonomische Daten</t>
+  </si>
+  <si>
+    <t>1. Unsere gezogenen Daten werden ins Arbeitsblatt "Drawn Data Bloomberg" respektive "Other Ressources" hinzugefügt
+2. Diese wurden so adjustiert somit wir einen Schnitt für das Jahr erhalten
+3. Unsere Daten wurden dann im Arbeitsblatt "Macroeconomic Values" ergänzt, auf dieser sich schlussendlich unser Code bezieht</t>
+  </si>
+  <si>
+    <t>Erklärung des Dokuments</t>
+  </si>
+  <si>
+    <t>1. Ressource: S&amp;P 500 Historical Annual Returns</t>
+  </si>
+  <si>
+    <t>Ziel:</t>
+  </si>
+  <si>
+    <t>Verzögerte Daten erstellen anhand des Benchmarks</t>
+  </si>
+  <si>
+    <t>-Kurs der Jahre davor</t>
+  </si>
+  <si>
+    <t>-Mittelwert aus vergangen Daten</t>
+  </si>
+  <si>
+    <t>Ressource:</t>
+  </si>
+  <si>
+    <t>https://www.macrotrends.net/2526/sp-500-historical-annual-returns</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Exporte Importe von USA erhalten</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/itable/itable.cfm?reqid=62&amp;step=1</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011 </t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013 </t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015 </t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017 </t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019 </t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Current account</t>
+  </si>
+  <si>
+    <t>Exports of goods and services and income receipts (credits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Exports of goods and services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Primary income receipts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Investment income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Compensation of employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Secondary income (current transfer) receipts /1/</t>
+  </si>
+  <si>
+    <t>Imports of goods and services and income payments (debits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Imports of goods and services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Primary income payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Secondary income (current transfer) payments /1/</t>
+  </si>
+  <si>
+    <t>Capital account</t>
+  </si>
+  <si>
+    <t>Capital transfer receipts and other credits</t>
+  </si>
+  <si>
+    <t>Capital transfer payments and other debits</t>
+  </si>
+  <si>
+    <t>Financial account</t>
+  </si>
+  <si>
+    <t>Net U.S. acquisition of financial assets excluding financial derivatives (net increase in assets / financial outflow (+))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Direct investment assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Portfolio investment assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other investment assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reserve assets</t>
+  </si>
+  <si>
+    <t>Net U.S. incurrence of liabilities excluding financial derivatives (net increase in liabilities / financial inflow (+))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Direct investment liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Portfolio investment liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other investment liabilities</t>
+  </si>
+  <si>
+    <t>Financial derivatives other than reserves, net transactions /2/</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy /3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Of which: Seasonal adjustment discrepancy</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>Balances</t>
+  </si>
+  <si>
+    <t>Balance on current account (line 1 less line 9) /4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Balance on goods and services (line 2 less line 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Balance on goods (line 3 less line 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Balance on services (line 4 less line 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Balance on primary income (line 5 less line 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Balance on secondary income (line 8 less line 16)</t>
+  </si>
+  <si>
+    <t>Balance on capital account (line 17 less line 18) /4/</t>
+  </si>
+  <si>
+    <t>Net lending (+) or net borrowing (-) from current- and capital-account transactions (line 30 plus line 36) /5/</t>
+  </si>
+  <si>
+    <t>Net lending (+) or net borrowing (-) from financial-account transactions (line 19 less line 24 plus line 28) /5/</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>29a</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2. Ressource: Exporte und Importe</t>
+  </si>
+  <si>
+    <t>GeoName</t>
+  </si>
+  <si>
+    <t>LineCode</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Personal income (millions of dollars)</t>
+  </si>
+  <si>
+    <t>Population (persons) 1/</t>
+  </si>
+  <si>
+    <t>Per capita personal income (dollars) 2/</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/itable/iTable.cfm?ReqID=70&amp;step=1</t>
+  </si>
+  <si>
+    <t>Wohlstand Bevölkerung messen</t>
+  </si>
+  <si>
+    <t>3. Ressource: Einkommen pro Person</t>
+  </si>
+  <si>
+    <t>4. Industrial Production</t>
+  </si>
+  <si>
+    <t>https://www.federalreserve.gov/releases/g17/current/default.htm</t>
+  </si>
+  <si>
+    <t>Descriptions:</t>
+  </si>
+  <si>
+    <t>Unit:</t>
+  </si>
+  <si>
+    <t>Multiplier:</t>
+  </si>
+  <si>
+    <t>Currency:</t>
+  </si>
+  <si>
+    <t>Unique Identifier:</t>
+  </si>
+  <si>
+    <t>Series Name:</t>
+  </si>
+  <si>
+    <t>Total index; n.s.a. IP</t>
+  </si>
+  <si>
+    <t>Index:_2012_100</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>G17/IP_MAJOR_INDUSTRY_GROUPS/IP.B50001.A</t>
+  </si>
+  <si>
+    <t>IP.B50001.A</t>
+  </si>
+  <si>
+    <t>Manufacturing (SIC); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_MAJOR_INDUSTRY_GROUPS/IP.B00004.A</t>
+  </si>
+  <si>
+    <t>IP.B00004.A</t>
+  </si>
+  <si>
+    <t>Allgemeine Produktion sehen und womöglich Industrien mit leading indicators</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction  (NAICS = 211); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_MINING_AND_UTILITY_DETAIL/IP.G211.A</t>
+  </si>
+  <si>
+    <t>IP.G211.A</t>
+  </si>
+  <si>
+    <t>Mining (except oil and gas)  (NAICS = 212); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_MINING_AND_UTILITY_DETAIL/IP.G212.A</t>
+  </si>
+  <si>
+    <t>IP.G212.A</t>
+  </si>
+  <si>
+    <t>Electric power generation  (NAICS = 22111); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_MINING_AND_UTILITY_DETAIL/IP.G22111.A</t>
+  </si>
+  <si>
+    <t>IP.G22111.A</t>
+  </si>
+  <si>
+    <t>Motor vehicles and parts  (NAICS = 3361-3); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_DURABLE_GOODS_DETAIL/IP.G3361T3.A</t>
+  </si>
+  <si>
+    <t>IP.G3361T3.A</t>
+  </si>
+  <si>
+    <t>Computer and electronic product  (NAICS = 334); n.s.a. IP</t>
+  </si>
+  <si>
+    <t>G17/IP_MAJOR_INDUSTRY_GROUPS/IP.G334.A</t>
+  </si>
+  <si>
+    <t>IP.G334.A</t>
+  </si>
+  <si>
+    <t>- Daten sind standardisiert (nur Wachstum ist interpretierbar</t>
+  </si>
+  <si>
+    <t>Selbstständig</t>
+  </si>
+  <si>
+    <t>Total Index</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>Mining (except oil and gas)</t>
+  </si>
+  <si>
+    <t>Electric power generation</t>
+  </si>
+  <si>
+    <t>Motor vehicles and parts</t>
+  </si>
+  <si>
+    <t>Computer and electronic product</t>
+  </si>
+  <si>
+    <t>Tägliche Taylor rule estimation bezogen auf die Federal Reserve</t>
+  </si>
+  <si>
+    <t>Jähliche Werte Fed Werte</t>
+  </si>
+  <si>
+    <t>Übersicht Macroeconomic Values</t>
+  </si>
+  <si>
+    <t>Weitere Leading indicatoren</t>
+  </si>
+  <si>
+    <t>Exports of goods, services and income receipts</t>
+  </si>
+  <si>
+    <t>Gütermarktbezogene Indikatoren</t>
+  </si>
+  <si>
+    <t>Geldmarktbezogene Indikatoren</t>
+  </si>
+  <si>
+    <t>Arbeitsmarktbezogene Indikatoren</t>
+  </si>
+  <si>
+    <t>Imports of goods, services and income payments</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Per capita personal income (dollars)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Index Industrial Production</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +666,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +691,180 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +883,229 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF243E72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -173,11 +1124,291 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,15 +1416,200 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="21" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="44">
+    <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="43" xr:uid="{DBFEE65D-CE59-4F38-85DE-6238212861F9}"/>
+    <cellStyle name="Überschrift" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAD9AC"/>
+      <color rgb="FFE2A700"/>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,11 +1883,755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC481A8-9977-41FE-9BCC-DED112F8D8EE}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="68" t="str">
+        <f>'Macroeconomic Values'!G1</f>
+        <v>Uncertainty About GDP Growth - Broadly Similar</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="48" t="str">
+        <f>'Macroeconomic Values'!D1</f>
+        <v>Job Quality Index (JQI)</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49" t="str">
+        <f>'Macroeconomic Values'!O1</f>
+        <v>Exports of goods, services and income receipts</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="51" t="str">
+        <f>'Macroeconomic Values'!E1</f>
+        <v>Consumer Price Index (yoy %)</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="71" t="str">
+        <f>'Macroeconomic Values'!H1</f>
+        <v>Risks to GDP Growth - Broadly Balance</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="51" t="str">
+        <f>'Macroeconomic Values'!F1</f>
+        <v>Unemployment Rate</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51" t="str">
+        <f>'Macroeconomic Values'!T1</f>
+        <v>Total Index Industrial Production</v>
+      </c>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="71" t="str">
+        <f>'Macroeconomic Values'!I1</f>
+        <v>Optimism Index</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="51" t="str">
+        <f>'Other Ressources'!Z13</f>
+        <v>Personal income (millions of dollars)</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="52" t="str">
+        <f>'Macroeconomic Values'!U1</f>
+        <v>Manufacturing</v>
+      </c>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="51" t="str">
+        <f>'Macroeconomic Values'!J1</f>
+        <v>M2</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="51" t="str">
+        <f>'Macroeconomic Values'!K1</f>
+        <v>OECD Leading Indicator (12-mo % chg)</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="52" t="str">
+        <f>'Macroeconomic Values'!V1</f>
+        <v>Oil and gas extraction</v>
+      </c>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="51" t="str">
+        <f>'Macroeconomic Values'!L1</f>
+        <v>Fed Funds Rate (%)</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="52" t="str">
+        <f>'Macroeconomic Values'!W1</f>
+        <v>Mining (except oil and gas)</v>
+      </c>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="51" t="str">
+        <f>'Macroeconomic Values'!M1</f>
+        <v>3-Month T-Bill Rate (%)</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="52" t="str">
+        <f>'Macroeconomic Values'!X1</f>
+        <v>Electric power generation</v>
+      </c>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="53"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="51" t="str">
+        <f>'Macroeconomic Values'!N1</f>
+        <v>10-Year Treasury Yield (%)</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="52" t="str">
+        <f>'Macroeconomic Values'!Y1</f>
+        <v>Motor vehicles and parts</v>
+      </c>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="53"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52" t="str">
+        <f>'Macroeconomic Values'!Z1</f>
+        <v>Computer and electronic product</v>
+      </c>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="53"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B9:Q13"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFDE01-A750-499E-BC0B-25C862978AFB}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,60 +2651,101 @@
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>Sheet1!V12</f>
+      <c r="F1" s="20" t="str">
+        <f>'Drawn Data Bloomberg'!V12</f>
         <v>Unemployment Rate</v>
       </c>
-      <c r="G1" s="4" t="str">
-        <f>Sheet1!W12</f>
+      <c r="G1" s="66" t="str">
+        <f>'Drawn Data Bloomberg'!W12</f>
         <v>Uncertainty About GDP Growth - Broadly Similar</v>
       </c>
-      <c r="H1" s="4" t="str">
-        <f>Sheet1!X12</f>
+      <c r="H1" s="66" t="str">
+        <f>'Drawn Data Bloomberg'!X12</f>
         <v>Risks to GDP Growth - Broadly Balance</v>
       </c>
-      <c r="I1" s="4" t="str">
-        <f>Sheet1!Y12</f>
+      <c r="I1" s="66" t="str">
+        <f>'Drawn Data Bloomberg'!Y12</f>
         <v>Optimism Index</v>
       </c>
-      <c r="J1" s="4" t="str">
-        <f>Sheet1!Z12</f>
+      <c r="J1" s="67" t="str">
+        <f>'Drawn Data Bloomberg'!Z12</f>
         <v>M2</v>
       </c>
-      <c r="K1" s="4" t="str">
-        <f>Sheet1!AA12</f>
+      <c r="K1" s="66" t="str">
+        <f>'Drawn Data Bloomberg'!AA12</f>
         <v>OECD Leading Indicator (12-mo % chg)</v>
       </c>
-      <c r="L1" s="4" t="str">
-        <f>Sheet1!AB12</f>
+      <c r="L1" s="67" t="str">
+        <f>'Drawn Data Bloomberg'!AB12</f>
         <v>Fed Funds Rate (%)</v>
       </c>
-      <c r="M1" s="4" t="str">
-        <f>Sheet1!AC12</f>
+      <c r="M1" s="67" t="str">
+        <f>'Drawn Data Bloomberg'!AC12</f>
         <v>3-Month T-Bill Rate (%)</v>
       </c>
-      <c r="N1" s="4" t="str">
-        <f>Sheet1!AD12</f>
+      <c r="N1" s="67" t="str">
+        <f>'Drawn Data Bloomberg'!AD12</f>
         <v>10-Year Treasury Yield (%)</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="74" t="str" cm="1">
+        <f t="array" ref="T1:Z1">'Other Ressources'!AO35:AU35</f>
+        <v>Total Index Industrial Production</v>
+      </c>
+      <c r="U1" s="74" t="str">
+        <v>Manufacturing</v>
+      </c>
+      <c r="V1" s="74" t="str">
+        <v>Oil and gas extraction</v>
+      </c>
+      <c r="W1" s="74" t="str">
+        <v>Mining (except oil and gas)</v>
+      </c>
+      <c r="X1" s="74" t="str">
+        <v>Electric power generation</v>
+      </c>
+      <c r="Y1" s="74" t="str">
+        <v>Motor vehicles and parts</v>
+      </c>
+      <c r="Z1" s="74" t="str">
+        <v>Computer and electronic product</v>
+      </c>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44196</v>
       </c>
@@ -552,55 +2753,75 @@
         <v>0.36</v>
       </c>
       <c r="C2" s="2">
-        <f>Sheet1!E13</f>
+        <f>'Drawn Data Bloomberg'!E13</f>
         <v>-1.9950000000000134E-2</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(Sheet1!T103:T438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T103:T438)</f>
         <v>81.622508333333329</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(Sheet1!U103:U438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U103:U438)</f>
         <v>1.2333333333333334</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(Sheet1!V103:V438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V103:V438)</f>
         <v>8.1083333333333343</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(Sheet1!W103:W287)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W103:W287)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(Sheet1!X103:X287)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X103:X287)</f>
         <v>5.666666666666667</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE(Sheet1!Y103:Y438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y103:Y438)</f>
         <v>99.61666666666666</v>
       </c>
       <c r="J2" s="2">
-        <f>AVERAGE(Sheet1!Z103:Z438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z103:Z438)</f>
         <v>17684.083583333337</v>
       </c>
       <c r="K2" s="2">
-        <f>AVERAGE(Sheet1!AA103:AA438)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA103:AA438)</f>
         <v>0.39090909090909087</v>
       </c>
       <c r="L2" s="2">
-        <f>AVERAGE(Sheet1!AB103:AB468)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB103:AB468)</f>
         <v>0.5362595419847328</v>
       </c>
       <c r="M2" s="2">
-        <f>AVERAGE(Sheet1!AC103:AC468)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC103:AC468)</f>
         <v>0.34851145038167947</v>
       </c>
       <c r="N2" s="2">
-        <f>AVERAGE(Sheet1!AD103:AD468)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD103:AD468)</f>
         <v>0.89072519083969481</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>'Other Ressources'!V14</f>
+        <v>3227607</v>
+      </c>
+      <c r="P2">
+        <f>'Other Ressources'!V22</f>
+        <v>3874818</v>
+      </c>
+      <c r="Q2">
+        <f>'Other Ressources'!AL13</f>
+        <v>19679715.100000001</v>
+      </c>
+      <c r="R2">
+        <f>'Other Ressources'!AL14</f>
+        <v>329484123</v>
+      </c>
+      <c r="S2">
+        <f>'Other Ressources'!AL15</f>
+        <v>59729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43830</v>
       </c>
@@ -608,55 +2829,103 @@
         <v>2.16</v>
       </c>
       <c r="C3" s="2">
-        <f>Sheet1!E14</f>
+        <f>'Drawn Data Bloomberg'!E14</f>
         <v>4.8661750000000001</v>
       </c>
       <c r="D3" s="2">
-        <f>AVERAGE(Sheet1!T469:T803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T469:T803)</f>
         <v>79.73174166666665</v>
       </c>
       <c r="E3" s="2">
-        <f>AVERAGE(Sheet1!U469:U803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U469:U803)</f>
         <v>1.8166666666666667</v>
       </c>
       <c r="F3" s="2">
-        <f>AVERAGE(Sheet1!V469:V803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V469:V803)</f>
         <v>3.6833333333333331</v>
       </c>
       <c r="G3" s="2">
-        <f>AVERAGE(Sheet1!W469:W744)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W469:W744)</f>
         <v>12.25</v>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE(Sheet1!X469:X744)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X469:X744)</f>
         <v>7</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE(Sheet1!Y469:Y803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y469:Y803)</f>
         <v>102.99166666666667</v>
       </c>
       <c r="J3" s="2">
-        <f>AVERAGE(Sheet1!Z469:Z803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z469:Z803)</f>
         <v>14840.07495</v>
       </c>
       <c r="K3" s="2">
-        <f>AVERAGE(Sheet1!AA469:AA803)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA469:AA803)</f>
         <v>1.0666666666666667</v>
       </c>
       <c r="L3" s="2">
-        <f>AVERAGE(Sheet1!AB469:AB833)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB469:AB833)</f>
         <v>2.2796934865900385</v>
       </c>
       <c r="M3" s="2">
-        <f>AVERAGE(Sheet1!AC469:AC833)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC469:AC833)</f>
         <v>2.0842911877394634</v>
       </c>
       <c r="N3" s="2">
-        <f>AVERAGE(Sheet1!AD469:AD833)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD469:AD833)</f>
         <v>2.1381609195402294</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>'Other Ressources'!U14</f>
+        <v>3805938</v>
+      </c>
+      <c r="P3">
+        <f>'Other Ressources'!U22</f>
+        <v>4286163</v>
+      </c>
+      <c r="Q3">
+        <f>'Other Ressources'!AK13</f>
+        <v>18542262</v>
+      </c>
+      <c r="R3">
+        <f>'Other Ressources'!AK14</f>
+        <v>328329953</v>
+      </c>
+      <c r="S3">
+        <f>'Other Ressources'!AK15</f>
+        <v>56474</v>
+      </c>
+      <c r="T3">
+        <f>'Other Ressources'!AO36</f>
+        <v>8.0371930897642496E-3</v>
+      </c>
+      <c r="U3">
+        <f>'Other Ressources'!AP36</f>
+        <v>-2.1736232767155528E-3</v>
+      </c>
+      <c r="V3">
+        <f>'Other Ressources'!AQ36</f>
+        <v>0.10846402951108791</v>
+      </c>
+      <c r="W3">
+        <f>'Other Ressources'!AR36</f>
+        <v>-8.0110425406511032E-3</v>
+      </c>
+      <c r="X3">
+        <f>'Other Ressources'!AS36</f>
+        <v>-1.8004850406508788E-2</v>
+      </c>
+      <c r="Y3">
+        <f>'Other Ressources'!AT36</f>
+        <v>-2.2550157647116764E-2</v>
+      </c>
+      <c r="Z3">
+        <f>'Other Ressources'!AU36</f>
+        <v>5.1880970580157726E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43465</v>
       </c>
@@ -664,55 +2933,103 @@
         <v>1.83</v>
       </c>
       <c r="C4" s="2">
-        <f>Sheet1!E15</f>
+        <f>'Drawn Data Bloomberg'!E15</f>
         <v>5.0979416666666664</v>
       </c>
       <c r="D4" s="2">
-        <f>AVERAGE(Sheet1!T834:T1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T834:T1168)</f>
         <v>82.15184166666667</v>
       </c>
       <c r="E4" s="2">
-        <f>AVERAGE(Sheet1!U834:U1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U834:U1168)</f>
         <v>2.4499999999999997</v>
       </c>
       <c r="F4" s="2">
-        <f>AVERAGE(Sheet1!V834:V1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V834:V1168)</f>
         <v>3.8916666666666671</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE(Sheet1!W834:W1109)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W834:W1109)</f>
         <v>14</v>
       </c>
       <c r="H4" s="2">
-        <f>AVERAGE(Sheet1!X834:X1109)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X834:X1109)</f>
         <v>12</v>
       </c>
       <c r="I4" s="2">
-        <f>AVERAGE(Sheet1!Y834:Y1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y834:Y1168)</f>
         <v>106.68333333333332</v>
       </c>
       <c r="J4" s="2">
-        <f>AVERAGE(Sheet1!Z834:Z1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z834:Z1168)</f>
         <v>14120.424966666666</v>
       </c>
       <c r="K4" s="2">
-        <f>AVERAGE(Sheet1!AA834:AA1168)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA834:AA1168)</f>
         <v>3.0916666666666663</v>
       </c>
       <c r="L4" s="2">
-        <f>AVERAGE(Sheet1!AB834:AB1198)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB834:AB1198)</f>
         <v>1.9080459770114941</v>
       </c>
       <c r="M4" s="2">
-        <f>AVERAGE(Sheet1!AC834:AC1198)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC834:AC1198)</f>
         <v>1.9541379310344829</v>
       </c>
       <c r="N4" s="2">
-        <f>AVERAGE(Sheet1!AD834:AD1198)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD834:AD1198)</f>
         <v>2.9080842911877411</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>'Other Ressources'!T14</f>
+        <v>3792867</v>
+      </c>
+      <c r="P4">
+        <f>'Other Ressources'!T22</f>
+        <v>4242560</v>
+      </c>
+      <c r="Q4">
+        <f>'Other Ressources'!AJ13</f>
+        <v>17839255</v>
+      </c>
+      <c r="R4">
+        <f>'Other Ressources'!AJ14</f>
+        <v>326838199</v>
+      </c>
+      <c r="S4">
+        <f>'Other Ressources'!AJ15</f>
+        <v>54581</v>
+      </c>
+      <c r="T4">
+        <f>'Other Ressources'!AO37</f>
+        <v>3.9414484499905811E-2</v>
+      </c>
+      <c r="U4">
+        <f>'Other Ressources'!AP37</f>
+        <v>2.3095430591948185E-2</v>
+      </c>
+      <c r="V4">
+        <f>'Other Ressources'!AQ37</f>
+        <v>0.15380924383810779</v>
+      </c>
+      <c r="W4">
+        <f>'Other Ressources'!AR37</f>
+        <v>-1.4729273015690048E-2</v>
+      </c>
+      <c r="X4">
+        <f>'Other Ressources'!AS37</f>
+        <v>2.9534188060117872E-2</v>
+      </c>
+      <c r="Y4">
+        <f>'Other Ressources'!AT37</f>
+        <v>4.1476967083464711E-2</v>
+      </c>
+      <c r="Z4">
+        <f>'Other Ressources'!AU37</f>
+        <v>4.9074196213472865E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43100</v>
       </c>
@@ -720,55 +3037,103 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f>Sheet1!E16</f>
+        <f>'Drawn Data Bloomberg'!E16</f>
         <v>4.1290833333333348</v>
       </c>
       <c r="D5" s="2">
-        <f>AVERAGE(Sheet1!T1199:T1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T1199:T1533)</f>
         <v>83.233491666666666</v>
       </c>
       <c r="E5" s="2">
-        <f>AVERAGE(Sheet1!U1199:U1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U1199:U1533)</f>
         <v>2.1166666666666667</v>
       </c>
       <c r="F5" s="2">
-        <f>AVERAGE(Sheet1!V1199:V1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V1199:V1533)</f>
         <v>4.3500000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>AVERAGE(Sheet1!W1199:W1474)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W1199:W1474)</f>
         <v>13.5</v>
       </c>
       <c r="H5" s="2">
-        <f>AVERAGE(Sheet1!X1199:X1474)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X1199:X1474)</f>
         <v>11.5</v>
       </c>
       <c r="I5" s="2">
-        <f>AVERAGE(Sheet1!Y1199:Y1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y1199:Y1533)</f>
         <v>104.85000000000001</v>
       </c>
       <c r="J5" s="2">
-        <f>AVERAGE(Sheet1!Z1199:Z1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z1199:Z1533)</f>
         <v>13597.108316666667</v>
       </c>
       <c r="K5" s="2">
-        <f>AVERAGE(Sheet1!AA1199:AA1533)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA1199:AA1533)</f>
         <v>3.5</v>
       </c>
       <c r="L5" s="2">
-        <f>AVERAGE(Sheet1!AB1201:AB1562)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB1201:AB1562)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M5" s="2">
-        <f>AVERAGE(Sheet1!AC1201:AC1562)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC1201:AC1562)</f>
         <v>0.93396153846153829</v>
       </c>
       <c r="N5" s="2">
-        <f>AVERAGE(Sheet1!AD1201:AD1562)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD1201:AD1562)</f>
         <v>2.3262692307692308</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>'Other Ressources'!S14</f>
+        <v>3542008</v>
+      </c>
+      <c r="P5">
+        <f>'Other Ressources'!S22</f>
+        <v>3907277</v>
+      </c>
+      <c r="Q5">
+        <f>'Other Ressources'!AI13</f>
+        <v>16937582</v>
+      </c>
+      <c r="R5">
+        <f>'Other Ressources'!AI14</f>
+        <v>325122128</v>
+      </c>
+      <c r="S5">
+        <f>'Other Ressources'!AI15</f>
+        <v>52096</v>
+      </c>
+      <c r="T5">
+        <f>'Other Ressources'!AO38</f>
+        <v>2.3216056180171529E-2</v>
+      </c>
+      <c r="U5">
+        <f>'Other Ressources'!AP38</f>
+        <v>1.9668099578072473E-2</v>
+      </c>
+      <c r="V5">
+        <f>'Other Ressources'!AQ38</f>
+        <v>4.9215658701406539E-2</v>
+      </c>
+      <c r="W5">
+        <f>'Other Ressources'!AR38</f>
+        <v>3.1239679611094751E-2</v>
+      </c>
+      <c r="X5">
+        <f>'Other Ressources'!AS38</f>
+        <v>-1.1879185644251944E-2</v>
+      </c>
+      <c r="Y5">
+        <f>'Other Ressources'!AT38</f>
+        <v>-2.3003172353874834E-4</v>
+      </c>
+      <c r="Z5">
+        <f>'Other Ressources'!AU38</f>
+        <v>4.3941170182117295E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42735</v>
       </c>
@@ -776,55 +3141,103 @@
         <v>0.39</v>
       </c>
       <c r="C6" s="2">
-        <f>Sheet1!E17</f>
+        <f>'Drawn Data Bloomberg'!E17</f>
         <v>3.5643833333333337</v>
       </c>
       <c r="D6" s="2">
-        <f>AVERAGE(Sheet1!T1564:T1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T1564:T1899)</f>
         <v>83.019850000000005</v>
       </c>
       <c r="E6" s="2">
-        <f>AVERAGE(Sheet1!U1564:U1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U1564:U1899)</f>
         <v>1.2666666666666668</v>
       </c>
       <c r="F6" s="2">
-        <f>AVERAGE(Sheet1!V1564:V1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V1564:V1899)</f>
         <v>4.875</v>
       </c>
       <c r="G6" s="2">
-        <f>AVERAGE(Sheet1!W1564:W1839)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W1564:W1839)</f>
         <v>13.75</v>
       </c>
       <c r="H6" s="2">
-        <f>AVERAGE(Sheet1!X1564:X1839)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X1564:X1839)</f>
         <v>10.5</v>
       </c>
       <c r="I6" s="2">
-        <f>AVERAGE(Sheet1!Y1564:Y1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y1564:Y1899)</f>
         <v>95.291666666666686</v>
       </c>
       <c r="J6" s="2">
-        <f>AVERAGE(Sheet1!Z1564:Z1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z1564:Z1899)</f>
         <v>12863.791666666666</v>
       </c>
       <c r="K6" s="2">
-        <f>AVERAGE(Sheet1!AA1564:AA1899)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA1564:AA1899)</f>
         <v>1.5666666666666664</v>
       </c>
       <c r="L6" s="2">
-        <f>AVERAGE(Sheet1!AB1565:AB1929)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB1565:AB1929)</f>
         <v>0.51245210727969348</v>
       </c>
       <c r="M6" s="2">
-        <f>AVERAGE(Sheet1!AC1565:AC1929)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC1565:AC1929)</f>
         <v>0.3064367816091953</v>
       </c>
       <c r="N6" s="2">
-        <f>AVERAGE(Sheet1!AD1565:AD1929)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD1565:AD1929)</f>
         <v>1.836896551724138</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f>'Other Ressources'!R14</f>
+        <v>3235442</v>
+      </c>
+      <c r="P6">
+        <f>'Other Ressources'!R22</f>
+        <v>3630307</v>
+      </c>
+      <c r="Q6">
+        <f>'Other Ressources'!AH13</f>
+        <v>16151881</v>
+      </c>
+      <c r="R6">
+        <f>'Other Ressources'!AH14</f>
+        <v>323071755</v>
+      </c>
+      <c r="S6">
+        <f>'Other Ressources'!AH15</f>
+        <v>49995</v>
+      </c>
+      <c r="T6">
+        <f>'Other Ressources'!AO39</f>
+        <v>-1.959247498352723E-2</v>
+      </c>
+      <c r="U6">
+        <f>'Other Ressources'!AP39</f>
+        <v>-7.9859061811208276E-3</v>
+      </c>
+      <c r="V6">
+        <f>'Other Ressources'!AQ39</f>
+        <v>-4.0243769675982866E-2</v>
+      </c>
+      <c r="W6">
+        <f>'Other Ressources'!AR39</f>
+        <v>-8.1731697479603072E-2</v>
+      </c>
+      <c r="X6">
+        <f>'Other Ressources'!AS39</f>
+        <v>-7.0033736852549433E-3</v>
+      </c>
+      <c r="Y6">
+        <f>'Other Ressources'!AT39</f>
+        <v>1.2631372195722523E-2</v>
+      </c>
+      <c r="Z6">
+        <f>'Other Ressources'!AU39</f>
+        <v>2.1344910735931366E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42369</v>
       </c>
@@ -832,55 +3245,103 @@
         <v>0.13</v>
       </c>
       <c r="C7" s="2">
-        <f>Sheet1!E18</f>
+        <f>'Drawn Data Bloomberg'!E18</f>
         <v>2.5897083333333337</v>
       </c>
       <c r="D7" s="2">
-        <f>AVERAGE(Sheet1!T1930:T2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T1930:T2264)</f>
         <v>82.796266666666668</v>
       </c>
       <c r="E7" s="2">
-        <f>AVERAGE(Sheet1!U1930:U2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U1930:U2264)</f>
         <v>0.12499999999999999</v>
       </c>
       <c r="F7" s="2">
-        <f>AVERAGE(Sheet1!V1930:V2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V1930:V2264)</f>
         <v>5.2750000000000004</v>
       </c>
       <c r="G7" s="2">
-        <f>AVERAGE(Sheet1!W1930:W2205)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W1930:W2205)</f>
         <v>14.75</v>
       </c>
       <c r="H7" s="2">
-        <f>AVERAGE(Sheet1!X1930:X2205)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X1930:X2205)</f>
         <v>12.25</v>
       </c>
       <c r="I7" s="2">
-        <f>AVERAGE(Sheet1!Y1930:Y2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y1930:Y2264)</f>
         <v>96.13333333333334</v>
       </c>
       <c r="J7" s="2">
-        <f>AVERAGE(Sheet1!Z1930:Z2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z1930:Z2264)</f>
         <v>12046.183350000001</v>
       </c>
       <c r="K7" s="2">
-        <f>AVERAGE(Sheet1!AA1930:AA2264)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA1930:AA2264)</f>
         <v>1.5083333333333331</v>
       </c>
       <c r="L7" s="2">
-        <f>AVERAGE(Sheet1!AB1930:AB2294)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB1930:AB2294)</f>
         <v>0.2614942528735632</v>
       </c>
       <c r="M7" s="2">
-        <f>AVERAGE(Sheet1!AC1930:AC2294)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC1930:AC2294)</f>
         <v>4.1800766283524748E-2</v>
       </c>
       <c r="N7" s="2">
-        <f>AVERAGE(Sheet1!AD1930:AD2294)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD1930:AD2294)</f>
         <v>2.1312260536398475</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>'Other Ressources'!Q14</f>
+        <v>3236349</v>
+      </c>
+      <c r="P7">
+        <f>'Other Ressources'!Q22</f>
+        <v>3643704</v>
+      </c>
+      <c r="Q7">
+        <f>'Other Ressources'!AG13</f>
+        <v>15717140</v>
+      </c>
+      <c r="R7">
+        <f>'Other Ressources'!AG14</f>
+        <v>320738994</v>
+      </c>
+      <c r="S7">
+        <f>'Other Ressources'!AG15</f>
+        <v>49003</v>
+      </c>
+      <c r="T7">
+        <f>'Other Ressources'!AO40</f>
+        <v>-9.9545256575330754E-3</v>
+      </c>
+      <c r="U7">
+        <f>'Other Ressources'!AP40</f>
+        <v>-5.4104430075831988E-3</v>
+      </c>
+      <c r="V7">
+        <f>'Other Ressources'!AQ40</f>
+        <v>6.6823748029190888E-2</v>
+      </c>
+      <c r="W7">
+        <f>'Other Ressources'!AR40</f>
+        <v>-4.6337856545160871E-2</v>
+      </c>
+      <c r="X7">
+        <f>'Other Ressources'!AS40</f>
+        <v>-5.8330119077095732E-3</v>
+      </c>
+      <c r="Y7">
+        <f>'Other Ressources'!AT40</f>
+        <v>5.2506095029497102E-2</v>
+      </c>
+      <c r="Z7">
+        <f>'Other Ressources'!AU40</f>
+        <v>6.073345609112657E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42004</v>
       </c>
@@ -888,55 +3349,103 @@
         <v>0.09</v>
       </c>
       <c r="C8" s="2">
-        <f>Sheet1!E19</f>
+        <f>'Drawn Data Bloomberg'!E19</f>
         <v>2.1989166666666664</v>
       </c>
       <c r="D8" s="2">
-        <f>AVERAGE(Sheet1!T2295:T2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T2295:T2629)</f>
         <v>81.495699999999999</v>
       </c>
       <c r="E8" s="2">
-        <f>AVERAGE(Sheet1!U2295:U2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U2295:U2629)</f>
         <v>1.6333333333333335</v>
       </c>
       <c r="F8" s="2">
-        <f>AVERAGE(Sheet1!V2295:V2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V2295:V2629)</f>
         <v>6.1583333333333341</v>
       </c>
       <c r="G8" s="2">
-        <f>AVERAGE(Sheet1!W2295:W2570)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W2295:W2570)</f>
         <v>14.25</v>
       </c>
       <c r="H8" s="2">
-        <f>AVERAGE(Sheet1!X2295:X2570)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X2295:X2570)</f>
         <v>13.5</v>
       </c>
       <c r="I8" s="2">
-        <f>AVERAGE(Sheet1!Y2295:Y2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y2295:Y2629)</f>
         <v>95.608333333333334</v>
       </c>
       <c r="J8" s="2">
-        <f>AVERAGE(Sheet1!Z2295:Z2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z2295:Z2629)</f>
         <v>11389.858316666667</v>
       </c>
       <c r="K8" s="2">
-        <f>AVERAGE(Sheet1!AA2295:AA2629)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA2295:AA2629)</f>
         <v>2.7083333333333335</v>
       </c>
       <c r="L8" s="2">
-        <f>AVERAGE(Sheet1!AB2295:AB2659)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB2295:AB2659)</f>
         <v>0.25</v>
       </c>
       <c r="M8" s="2">
-        <f>AVERAGE(Sheet1!AC2295:AC2659)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC2295:AC2659)</f>
         <v>2.4980842911877355E-2</v>
       </c>
       <c r="N8" s="2">
-        <f>AVERAGE(Sheet1!AD2295:AD2659)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD2295:AD2659)</f>
         <v>2.5291187739463616</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f>'Other Ressources'!P14</f>
+        <v>3379101</v>
+      </c>
+      <c r="P8">
+        <f>'Other Ressources'!P22</f>
+        <v>3746920</v>
+      </c>
+      <c r="Q8">
+        <f>'Other Ressources'!AF13</f>
+        <v>14982715</v>
+      </c>
+      <c r="R8">
+        <f>'Other Ressources'!AF14</f>
+        <v>318386329</v>
+      </c>
+      <c r="S8">
+        <f>'Other Ressources'!AF15</f>
+        <v>47058</v>
+      </c>
+      <c r="T8">
+        <f>'Other Ressources'!AO41</f>
+        <v>3.068991541454702E-2</v>
+      </c>
+      <c r="U8">
+        <f>'Other Ressources'!AP41</f>
+        <v>1.1367094002269651E-2</v>
+      </c>
+      <c r="V8">
+        <f>'Other Ressources'!AQ41</f>
+        <v>0.13936305778667202</v>
+      </c>
+      <c r="W8">
+        <f>'Other Ressources'!AR41</f>
+        <v>3.6658758347207776E-2</v>
+      </c>
+      <c r="X8">
+        <f>'Other Ressources'!AS41</f>
+        <v>6.4114846786564872E-3</v>
+      </c>
+      <c r="Y8">
+        <f>'Other Ressources'!AT41</f>
+        <v>9.1531448200495635E-2</v>
+      </c>
+      <c r="Z8">
+        <f>'Other Ressources'!AU41</f>
+        <v>4.1185992187727116E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>41639</v>
       </c>
@@ -944,55 +3453,103 @@
         <v>0.11</v>
       </c>
       <c r="C9" s="2">
-        <f>Sheet1!E20</f>
+        <f>'Drawn Data Bloomberg'!E20</f>
         <v>0.9314083333333335</v>
       </c>
       <c r="D9" s="2">
-        <f>AVERAGE(Sheet1!T2660:T2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T2660:T2994)</f>
         <v>80.06079166666666</v>
       </c>
       <c r="E9" s="2">
-        <f>AVERAGE(Sheet1!U2660:U2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U2660:U2994)</f>
         <v>1.4833333333333336</v>
       </c>
       <c r="F9" s="2">
-        <f>AVERAGE(Sheet1!V2660:V2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V2660:V2994)</f>
         <v>7.3583333333333334</v>
       </c>
       <c r="G9" s="2">
-        <f>AVERAGE(Sheet1!W2660:W2935)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W2660:W2935)</f>
         <v>11.25</v>
       </c>
       <c r="H9" s="2">
-        <f>AVERAGE(Sheet1!X2660:X2935)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X2660:X2935)</f>
         <v>10.25</v>
       </c>
       <c r="I9" s="2">
-        <f>AVERAGE(Sheet1!Y2660:Y2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y2660:Y2994)</f>
         <v>92.425000000000011</v>
       </c>
       <c r="J9" s="2">
-        <f>AVERAGE(Sheet1!Z2660:Z2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z2660:Z2994)</f>
         <v>10728.1333</v>
       </c>
       <c r="K9" s="2">
-        <f>AVERAGE(Sheet1!AA2660:AA2994)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA2660:AA2994)</f>
         <v>2.7833333333333332</v>
       </c>
       <c r="L9" s="2">
-        <f>AVERAGE(Sheet1!AB2660:AB3023)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB2660:AB3023)</f>
         <v>0.25</v>
       </c>
       <c r="M9" s="2">
-        <f>AVERAGE(Sheet1!AC2660:AC3023)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC2660:AC3023)</f>
         <v>5.099999999999999E-2</v>
       </c>
       <c r="N9" s="2">
-        <f>AVERAGE(Sheet1!AD2660:AD3023)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD2660:AD3023)</f>
         <v>2.3368461538461562</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>'Other Ressources'!O14</f>
+        <v>3250758</v>
+      </c>
+      <c r="P9">
+        <f>'Other Ressources'!O22</f>
+        <v>3587611</v>
+      </c>
+      <c r="Q9">
+        <f>'Other Ressources'!AE13</f>
+        <v>14175503</v>
+      </c>
+      <c r="R9">
+        <f>'Other Ressources'!AE14</f>
+        <v>316059947</v>
+      </c>
+      <c r="S9">
+        <f>'Other Ressources'!AE15</f>
+        <v>44851</v>
+      </c>
+      <c r="T9">
+        <f>'Other Ressources'!AO42</f>
+        <v>2.027000000000001E-2</v>
+      </c>
+      <c r="U9">
+        <f>'Other Ressources'!AP42</f>
+        <v>8.9650000000001118E-3</v>
+      </c>
+      <c r="V9">
+        <f>'Other Ressources'!AQ42</f>
+        <v>0.10333400000000004</v>
+      </c>
+      <c r="W9">
+        <f>'Other Ressources'!AR42</f>
+        <v>6.3400000000002343E-4</v>
+      </c>
+      <c r="X9">
+        <f>'Other Ressources'!AS42</f>
+        <v>7.2550000000000114E-3</v>
+      </c>
+      <c r="Y9">
+        <f>'Other Ressources'!AT42</f>
+        <v>7.2462000000000026E-2</v>
+      </c>
+      <c r="Z9">
+        <f>'Other Ressources'!AU42</f>
+        <v>3.1710000000000127E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>41274</v>
       </c>
@@ -1000,55 +3557,75 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C10" s="2">
-        <f>Sheet1!E21</f>
+        <f>'Drawn Data Bloomberg'!E21</f>
         <v>0.77110000000000001</v>
       </c>
       <c r="D10" s="2">
-        <f>AVERAGE(Sheet1!T3025:T3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!T3025:T3360)</f>
         <v>79.811558333333338</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE(Sheet1!U3025:U3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!U3025:U3360)</f>
         <v>2.083333333333333</v>
       </c>
       <c r="F10" s="2">
-        <f>AVERAGE(Sheet1!V3025:V3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!V3025:V3360)</f>
         <v>8.0750000000000011</v>
       </c>
       <c r="G10" s="2">
-        <f>AVERAGE(Sheet1!W3025:W3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!W3025:W3360)</f>
         <v>1.8</v>
       </c>
       <c r="H10" s="2">
-        <f>AVERAGE(Sheet1!X3025:X3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!X3025:X3360)</f>
         <v>6</v>
       </c>
       <c r="I10" s="2">
-        <f>AVERAGE(Sheet1!Y3025:Y3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Y3025:Y3360)</f>
         <v>92.208333333333329</v>
       </c>
       <c r="J10" s="2">
-        <f>AVERAGE(Sheet1!Z3025:Z3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!Z3025:Z3360)</f>
         <v>10051.8667</v>
       </c>
       <c r="K10" s="2">
-        <f>AVERAGE(Sheet1!AA3025:AA3360)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AA3025:AA3360)</f>
         <v>1.7249999999999999</v>
       </c>
       <c r="L10" s="2">
-        <f>AVERAGE(Sheet1!AB3025:AB3389)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AB3025:AB3389)</f>
         <v>0.25</v>
       </c>
       <c r="M10" s="2">
-        <f>AVERAGE(Sheet1!AC3025:AC3389)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AC3025:AC3389)</f>
         <v>7.9693486590038123E-2</v>
       </c>
       <c r="N10" s="2">
-        <f>AVERAGE(Sheet1!AD3025:AD3389)</f>
+        <f>AVERAGE('Drawn Data Bloomberg'!AD3025:AD3389)</f>
         <v>1.7842145593869743</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>'Other Ressources'!N14</f>
+        <v>3151197</v>
+      </c>
+      <c r="P10">
+        <f>'Other Ressources'!N22</f>
+        <v>3569312</v>
+      </c>
+      <c r="Q10">
+        <f>'Other Ressources'!AE13</f>
+        <v>14175503</v>
+      </c>
+      <c r="R10">
+        <f>'Other Ressources'!AE14</f>
+        <v>316059947</v>
+      </c>
+      <c r="S10">
+        <f>'Other Ressources'!AE15</f>
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="3"/>
     </row>
@@ -1057,12 +3634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:AD3666"/>
+  <dimension ref="A4:AD3666"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,22 +3652,34 @@
     <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="S10" t="s">
+    <row r="10" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="C10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-    </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>44196</v>
       </c>
@@ -1191,7 +3780,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>43830</v>
       </c>
@@ -1227,7 +3816,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>43465</v>
       </c>
@@ -1263,7 +3852,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>43100</v>
       </c>
@@ -46800,9 +49389,3014 @@
     </row>
   </sheetData>
   <autoFilter ref="S12:AD3666" xr:uid="{73488A22-06CB-4C09-A899-3A779A35A0D8}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AB11:AD11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E00F2-501C-4F63-B6B1-DCAC4514FD8D}">
+  <dimension ref="A4:BA56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK12" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN12" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO12" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP12" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ12" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS12" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU12" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW12" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY12" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ12" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA12" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA13">
+        <v>12051307</v>
+      </c>
+      <c r="AB13">
+        <v>12541995</v>
+      </c>
+      <c r="AC13">
+        <v>13315478</v>
+      </c>
+      <c r="AD13">
+        <v>13998383</v>
+      </c>
+      <c r="AE13">
+        <v>14175503</v>
+      </c>
+      <c r="AF13">
+        <v>14982715</v>
+      </c>
+      <c r="AG13">
+        <v>15717140</v>
+      </c>
+      <c r="AH13">
+        <v>16151881</v>
+      </c>
+      <c r="AI13">
+        <v>16937582</v>
+      </c>
+      <c r="AJ13">
+        <v>17839255</v>
+      </c>
+      <c r="AK13">
+        <v>18542262</v>
+      </c>
+      <c r="AL13">
+        <v>19679715.100000001</v>
+      </c>
+      <c r="AN13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO13" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR13" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT13" s="42">
+        <v>100</v>
+      </c>
+      <c r="AU13" s="42">
+        <v>102.027</v>
+      </c>
+      <c r="AV13" s="42">
+        <v>105.15819999999999</v>
+      </c>
+      <c r="AW13" s="42">
+        <v>104.1114</v>
+      </c>
+      <c r="AX13" s="42">
+        <v>102.0716</v>
+      </c>
+      <c r="AY13" s="42">
+        <v>104.4413</v>
+      </c>
+      <c r="AZ13" s="42">
+        <v>108.5578</v>
+      </c>
+      <c r="BA13" s="42">
+        <v>109.4303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2687457</v>
+      </c>
+      <c r="M14" s="22">
+        <v>3036675</v>
+      </c>
+      <c r="N14" s="22">
+        <v>3151197</v>
+      </c>
+      <c r="O14" s="22">
+        <v>3250758</v>
+      </c>
+      <c r="P14" s="22">
+        <v>3379101</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>3236349</v>
+      </c>
+      <c r="R14" s="22">
+        <v>3235442</v>
+      </c>
+      <c r="S14" s="22">
+        <v>3542008</v>
+      </c>
+      <c r="T14" s="22">
+        <v>3792867</v>
+      </c>
+      <c r="U14" s="22">
+        <v>3805938</v>
+      </c>
+      <c r="V14" s="22">
+        <v>3227607</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA14">
+        <v>306771529</v>
+      </c>
+      <c r="AB14">
+        <v>309327143</v>
+      </c>
+      <c r="AC14">
+        <v>311583481</v>
+      </c>
+      <c r="AD14">
+        <v>313877662</v>
+      </c>
+      <c r="AE14">
+        <v>316059947</v>
+      </c>
+      <c r="AF14">
+        <v>318386329</v>
+      </c>
+      <c r="AG14">
+        <v>320738994</v>
+      </c>
+      <c r="AH14">
+        <v>323071755</v>
+      </c>
+      <c r="AI14">
+        <v>325122128</v>
+      </c>
+      <c r="AJ14">
+        <v>326838199</v>
+      </c>
+      <c r="AK14">
+        <v>328329953</v>
+      </c>
+      <c r="AL14">
+        <v>329484123</v>
+      </c>
+      <c r="AN14" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO14" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP14" s="44">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR14" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT14" s="44">
+        <v>100</v>
+      </c>
+      <c r="AU14" s="44">
+        <v>100.8965</v>
+      </c>
+      <c r="AV14" s="44">
+        <v>102.04340000000001</v>
+      </c>
+      <c r="AW14" s="44">
+        <v>101.4913</v>
+      </c>
+      <c r="AX14" s="44">
+        <v>100.6808</v>
+      </c>
+      <c r="AY14" s="44">
+        <v>102.661</v>
+      </c>
+      <c r="AZ14" s="44">
+        <v>105.032</v>
+      </c>
+      <c r="BA14" s="44">
+        <v>104.80370000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.2888</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>1872320</v>
+      </c>
+      <c r="M15">
+        <v>2143552</v>
+      </c>
+      <c r="N15">
+        <v>2247453</v>
+      </c>
+      <c r="O15">
+        <v>2313237</v>
+      </c>
+      <c r="P15">
+        <v>2392268</v>
+      </c>
+      <c r="Q15">
+        <v>2279743</v>
+      </c>
+      <c r="R15">
+        <v>2237923</v>
+      </c>
+      <c r="S15">
+        <v>2387391</v>
+      </c>
+      <c r="T15">
+        <v>2539383</v>
+      </c>
+      <c r="U15">
+        <v>2528262</v>
+      </c>
+      <c r="V15">
+        <v>2127254</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA15">
+        <v>39284</v>
+      </c>
+      <c r="AB15">
+        <v>40546</v>
+      </c>
+      <c r="AC15">
+        <v>42735</v>
+      </c>
+      <c r="AD15">
+        <v>44598</v>
+      </c>
+      <c r="AE15">
+        <v>44851</v>
+      </c>
+      <c r="AF15">
+        <v>47058</v>
+      </c>
+      <c r="AG15">
+        <v>49003</v>
+      </c>
+      <c r="AH15">
+        <v>49995</v>
+      </c>
+      <c r="AI15">
+        <v>52096</v>
+      </c>
+      <c r="AJ15">
+        <v>54581</v>
+      </c>
+      <c r="AK15">
+        <v>56474</v>
+      </c>
+      <c r="AL15">
+        <v>59729</v>
+      </c>
+      <c r="AN15" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO15" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP15" s="45">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR15" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT15" s="45">
+        <v>100</v>
+      </c>
+      <c r="AU15" s="45">
+        <v>110.3334</v>
+      </c>
+      <c r="AV15" s="45">
+        <v>125.7098</v>
+      </c>
+      <c r="AW15" s="45">
+        <v>134.11019999999999</v>
+      </c>
+      <c r="AX15" s="45">
+        <v>128.7131</v>
+      </c>
+      <c r="AY15" s="45">
+        <v>135.0478</v>
+      </c>
+      <c r="AZ15" s="45">
+        <v>155.8194</v>
+      </c>
+      <c r="BA15" s="45">
+        <v>172.72020000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16">
+        <v>1290279</v>
+      </c>
+      <c r="M16">
+        <v>1498887</v>
+      </c>
+      <c r="N16">
+        <v>1562630</v>
+      </c>
+      <c r="O16">
+        <v>1593708</v>
+      </c>
+      <c r="P16">
+        <v>1635563</v>
+      </c>
+      <c r="Q16">
+        <v>1511381</v>
+      </c>
+      <c r="R16">
+        <v>1457393</v>
+      </c>
+      <c r="S16">
+        <v>1557003</v>
+      </c>
+      <c r="T16">
+        <v>1676950</v>
+      </c>
+      <c r="U16">
+        <v>1652437</v>
+      </c>
+      <c r="V16">
+        <v>1435128</v>
+      </c>
+      <c r="AN16" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO16" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP16" s="46">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR16" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT16" s="46">
+        <v>100</v>
+      </c>
+      <c r="AU16" s="46">
+        <v>100.0634</v>
+      </c>
+      <c r="AV16" s="46">
+        <v>103.7316</v>
+      </c>
+      <c r="AW16" s="46">
+        <v>98.924899999999994</v>
+      </c>
+      <c r="AX16" s="46">
+        <v>90.839600000000004</v>
+      </c>
+      <c r="AY16" s="46">
+        <v>93.677400000000006</v>
+      </c>
+      <c r="AZ16" s="46">
+        <v>92.297600000000003</v>
+      </c>
+      <c r="BA16" s="46">
+        <v>91.558199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17">
+        <v>582041</v>
+      </c>
+      <c r="M17">
+        <v>644665</v>
+      </c>
+      <c r="N17">
+        <v>684823</v>
+      </c>
+      <c r="O17">
+        <v>719529</v>
+      </c>
+      <c r="P17">
+        <v>756705</v>
+      </c>
+      <c r="Q17">
+        <v>768362</v>
+      </c>
+      <c r="R17">
+        <v>780530</v>
+      </c>
+      <c r="S17">
+        <v>830388</v>
+      </c>
+      <c r="T17">
+        <v>862433</v>
+      </c>
+      <c r="U17">
+        <v>875825</v>
+      </c>
+      <c r="V17">
+        <v>692126</v>
+      </c>
+      <c r="AN17" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO17" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR17" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT17" s="47">
+        <v>100</v>
+      </c>
+      <c r="AU17" s="47">
+        <v>100.7255</v>
+      </c>
+      <c r="AV17" s="47">
+        <v>101.37130000000001</v>
+      </c>
+      <c r="AW17" s="47">
+        <v>100.78</v>
+      </c>
+      <c r="AX17" s="47">
+        <v>100.0742</v>
+      </c>
+      <c r="AY17" s="47">
+        <v>98.885400000000004</v>
+      </c>
+      <c r="AZ17" s="47">
+        <v>101.80589999999999</v>
+      </c>
+      <c r="BA17" s="47">
+        <v>99.972899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2016</v>
+      </c>
+      <c r="C18" s="16">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>723223</v>
+      </c>
+      <c r="M18">
+        <v>791469</v>
+      </c>
+      <c r="N18">
+        <v>791679</v>
+      </c>
+      <c r="O18">
+        <v>811561</v>
+      </c>
+      <c r="P18">
+        <v>845926</v>
+      </c>
+      <c r="Q18">
+        <v>825100</v>
+      </c>
+      <c r="R18">
+        <v>857819</v>
+      </c>
+      <c r="S18">
+        <v>997524</v>
+      </c>
+      <c r="T18">
+        <v>1108472</v>
+      </c>
+      <c r="U18">
+        <v>1135691</v>
+      </c>
+      <c r="V18">
+        <v>958314</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT18">
+        <v>100</v>
+      </c>
+      <c r="AU18">
+        <v>107.2462</v>
+      </c>
+      <c r="AV18">
+        <v>117.0626</v>
+      </c>
+      <c r="AW18">
+        <v>123.20910000000001</v>
+      </c>
+      <c r="AX18">
+        <v>124.7654</v>
+      </c>
+      <c r="AY18">
+        <v>124.7367</v>
+      </c>
+      <c r="AZ18">
+        <v>129.91040000000001</v>
+      </c>
+      <c r="BA18">
+        <v>126.98090000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="16">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19">
+        <v>717292</v>
+      </c>
+      <c r="M19">
+        <v>785365</v>
+      </c>
+      <c r="N19">
+        <v>785377</v>
+      </c>
+      <c r="O19">
+        <v>804948</v>
+      </c>
+      <c r="P19">
+        <v>839423</v>
+      </c>
+      <c r="Q19">
+        <v>818521</v>
+      </c>
+      <c r="R19">
+        <v>851489</v>
+      </c>
+      <c r="S19">
+        <v>991177</v>
+      </c>
+      <c r="T19">
+        <v>1101820</v>
+      </c>
+      <c r="U19">
+        <v>1128966</v>
+      </c>
+      <c r="V19">
+        <v>952148</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT19">
+        <v>100</v>
+      </c>
+      <c r="AU19">
+        <v>103.17100000000001</v>
+      </c>
+      <c r="AV19">
+        <v>107.42019999999999</v>
+      </c>
+      <c r="AW19">
+        <v>108.07259999999999</v>
+      </c>
+      <c r="AX19">
+        <v>110.3794</v>
+      </c>
+      <c r="AY19">
+        <v>115.2296</v>
+      </c>
+      <c r="AZ19">
+        <v>120.8844</v>
+      </c>
+      <c r="BA19">
+        <v>127.15600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.1139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20">
+        <v>5931</v>
+      </c>
+      <c r="M20">
+        <v>6105</v>
+      </c>
+      <c r="N20">
+        <v>6302</v>
+      </c>
+      <c r="O20">
+        <v>6613</v>
+      </c>
+      <c r="P20">
+        <v>6503</v>
+      </c>
+      <c r="Q20">
+        <v>6578</v>
+      </c>
+      <c r="R20">
+        <v>6329</v>
+      </c>
+      <c r="S20">
+        <v>6347</v>
+      </c>
+      <c r="T20">
+        <v>6652</v>
+      </c>
+      <c r="U20">
+        <v>6725</v>
+      </c>
+      <c r="V20">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2013</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21">
+        <v>91915</v>
+      </c>
+      <c r="M21">
+        <v>101654</v>
+      </c>
+      <c r="N21">
+        <v>112065</v>
+      </c>
+      <c r="O21">
+        <v>125960</v>
+      </c>
+      <c r="P21">
+        <v>140907</v>
+      </c>
+      <c r="Q21">
+        <v>131507</v>
+      </c>
+      <c r="R21">
+        <v>139700</v>
+      </c>
+      <c r="S21">
+        <v>157094</v>
+      </c>
+      <c r="T21">
+        <v>145012</v>
+      </c>
+      <c r="U21">
+        <v>141984</v>
+      </c>
+      <c r="V21">
+        <v>142040</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.1341</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="22">
+        <v>3119466</v>
+      </c>
+      <c r="M22" s="22">
+        <v>3491977</v>
+      </c>
+      <c r="N22" s="22">
+        <v>3569312</v>
+      </c>
+      <c r="O22" s="22">
+        <v>3587611</v>
+      </c>
+      <c r="P22" s="22">
+        <v>3746920</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>3643704</v>
+      </c>
+      <c r="R22" s="22">
+        <v>3630307</v>
+      </c>
+      <c r="S22" s="22">
+        <v>3907277</v>
+      </c>
+      <c r="T22" s="22">
+        <v>4242560</v>
+      </c>
+      <c r="U22" s="22">
+        <v>4286163</v>
+      </c>
+      <c r="V22" s="22">
+        <v>3874818</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23">
+        <v>2375407</v>
+      </c>
+      <c r="M23">
+        <v>2698074</v>
+      </c>
+      <c r="N23">
+        <v>2773359</v>
+      </c>
+      <c r="O23">
+        <v>2760066</v>
+      </c>
+      <c r="P23">
+        <v>2876412</v>
+      </c>
+      <c r="Q23">
+        <v>2771004</v>
+      </c>
+      <c r="R23">
+        <v>2719092</v>
+      </c>
+      <c r="S23">
+        <v>2901181</v>
+      </c>
+      <c r="T23">
+        <v>3119320</v>
+      </c>
+      <c r="U23">
+        <v>3105127</v>
+      </c>
+      <c r="V23">
+        <v>2808954</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.1278</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24">
+        <v>1938950</v>
+      </c>
+      <c r="M24">
+        <v>2239886</v>
+      </c>
+      <c r="N24">
+        <v>2303749</v>
+      </c>
+      <c r="O24">
+        <v>2294247</v>
+      </c>
+      <c r="P24">
+        <v>2385480</v>
+      </c>
+      <c r="Q24">
+        <v>2273249</v>
+      </c>
+      <c r="R24">
+        <v>2207195</v>
+      </c>
+      <c r="S24">
+        <v>2356345</v>
+      </c>
+      <c r="T24">
+        <v>2557251</v>
+      </c>
+      <c r="U24">
+        <v>2516767</v>
+      </c>
+      <c r="V24">
+        <v>2350698</v>
+      </c>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37" t="str">
+        <f>AT12</f>
+        <v>2012</v>
+      </c>
+      <c r="AU24" s="37" t="str">
+        <f t="shared" ref="AU24:BA24" si="0">AU12</f>
+        <v>2013</v>
+      </c>
+      <c r="AV24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="AW24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="AX24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="AY24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="AZ24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="BA24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2009</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25">
+        <v>436456</v>
+      </c>
+      <c r="M25">
+        <v>458188</v>
+      </c>
+      <c r="N25">
+        <v>469610</v>
+      </c>
+      <c r="O25">
+        <v>465819</v>
+      </c>
+      <c r="P25">
+        <v>490932</v>
+      </c>
+      <c r="Q25">
+        <v>497755</v>
+      </c>
+      <c r="R25">
+        <v>511898</v>
+      </c>
+      <c r="S25">
+        <v>544836</v>
+      </c>
+      <c r="T25">
+        <v>562069</v>
+      </c>
+      <c r="U25">
+        <v>588359</v>
+      </c>
+      <c r="V25">
+        <v>458256</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU25">
+        <f>AU13/AT13-1</f>
+        <v>2.027000000000001E-2</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" ref="AV25:BA25" si="1">AV13/AU13-1</f>
+        <v>3.068991541454702E-2</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="1"/>
+        <v>-9.9545256575330754E-3</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="1"/>
+        <v>-1.959247498352723E-2</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="1"/>
+        <v>2.3216056180171529E-2</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="1"/>
+        <v>3.9414484499905811E-2</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="1"/>
+        <v>8.0371930897642496E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2008</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26">
+        <v>553311</v>
+      </c>
+      <c r="M26">
+        <v>589038</v>
+      </c>
+      <c r="N26">
+        <v>593754</v>
+      </c>
+      <c r="O26">
+        <v>616041</v>
+      </c>
+      <c r="P26">
+        <v>645623</v>
+      </c>
+      <c r="Q26">
+        <v>639724</v>
+      </c>
+      <c r="R26">
+        <v>660798</v>
+      </c>
+      <c r="S26">
+        <v>739731</v>
+      </c>
+      <c r="T26">
+        <v>857298</v>
+      </c>
+      <c r="U26">
+        <v>899347</v>
+      </c>
+      <c r="V26">
+        <v>776740</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" ref="AU26:BA32" si="2">AU14/AT14-1</f>
+        <v>8.9650000000001118E-3</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="2"/>
+        <v>1.1367094002269651E-2</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="2"/>
+        <v>-5.4104430075831988E-3</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="2"/>
+        <v>-7.9859061811208276E-3</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="2"/>
+        <v>1.9668099578072473E-2</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="2"/>
+        <v>2.3095430591948185E-2</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="2"/>
+        <v>-2.1736232767155528E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27">
+        <v>539783</v>
+      </c>
+      <c r="M27">
+        <v>575098</v>
+      </c>
+      <c r="N27">
+        <v>579446</v>
+      </c>
+      <c r="O27">
+        <v>600831</v>
+      </c>
+      <c r="P27">
+        <v>629675</v>
+      </c>
+      <c r="Q27">
+        <v>623031</v>
+      </c>
+      <c r="R27">
+        <v>643482</v>
+      </c>
+      <c r="S27">
+        <v>722836</v>
+      </c>
+      <c r="T27">
+        <v>840180</v>
+      </c>
+      <c r="U27">
+        <v>880562</v>
+      </c>
+      <c r="V27">
+        <v>761297</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="2"/>
+        <v>0.10333400000000004</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="2"/>
+        <v>0.13936305778667202</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="2"/>
+        <v>6.6823748029190888E-2</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="2"/>
+        <v>-4.0243769675982866E-2</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="2"/>
+        <v>4.9215658701406539E-2</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="2"/>
+        <v>0.15380924383810779</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="2"/>
+        <v>0.10846402951108791</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28">
+        <v>13528</v>
+      </c>
+      <c r="M28">
+        <v>13940</v>
+      </c>
+      <c r="N28">
+        <v>14308</v>
+      </c>
+      <c r="O28">
+        <v>15210</v>
+      </c>
+      <c r="P28">
+        <v>15948</v>
+      </c>
+      <c r="Q28">
+        <v>16693</v>
+      </c>
+      <c r="R28">
+        <v>17316</v>
+      </c>
+      <c r="S28">
+        <v>16895</v>
+      </c>
+      <c r="T28">
+        <v>17117</v>
+      </c>
+      <c r="U28">
+        <v>18785</v>
+      </c>
+      <c r="V28">
+        <v>15443</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="2"/>
+        <v>6.3400000000002343E-4</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="2"/>
+        <v>3.6658758347207776E-2</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="2"/>
+        <v>-4.6337856545160871E-2</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="2"/>
+        <v>-8.1731697479603072E-2</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="2"/>
+        <v>3.1239679611094751E-2</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="2"/>
+        <v>-1.4729273015690048E-2</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="2"/>
+        <v>-8.0110425406511032E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29">
+        <v>190749</v>
+      </c>
+      <c r="M29">
+        <v>204865</v>
+      </c>
+      <c r="N29">
+        <v>202198</v>
+      </c>
+      <c r="O29">
+        <v>211504</v>
+      </c>
+      <c r="P29">
+        <v>224885</v>
+      </c>
+      <c r="Q29">
+        <v>232976</v>
+      </c>
+      <c r="R29">
+        <v>250417</v>
+      </c>
+      <c r="S29">
+        <v>266365</v>
+      </c>
+      <c r="T29">
+        <v>265943</v>
+      </c>
+      <c r="U29">
+        <v>281689</v>
+      </c>
+      <c r="V29">
+        <v>289124</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="2"/>
+        <v>7.2550000000000114E-3</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="2"/>
+        <v>6.4114846786564872E-3</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="2"/>
+        <v>-5.8330119077095732E-3</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="2"/>
+        <v>-7.0033736852549433E-3</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="2"/>
+        <v>-1.1879185644251944E-2</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="2"/>
+        <v>2.9534188060117872E-2</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="2"/>
+        <v>-1.8004850406508788E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="2"/>
+        <v>7.2462000000000026E-2</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="2"/>
+        <v>9.1531448200495635E-2</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="2"/>
+        <v>5.2506095029497102E-2</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="2"/>
+        <v>1.2631372195722523E-2</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="2"/>
+        <v>-2.3003172353874834E-4</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="2"/>
+        <v>4.1476967083464711E-2</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="2"/>
+        <v>-2.2550157647116764E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>7683</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <v>49</v>
+      </c>
+      <c r="Q31">
+        <v>67</v>
+      </c>
+      <c r="R31">
+        <v>76</v>
+      </c>
+      <c r="S31">
+        <v>19200</v>
+      </c>
+      <c r="T31">
+        <v>3286</v>
+      </c>
+      <c r="U31">
+        <v>67</v>
+      </c>
+      <c r="V31">
+        <v>406</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="2"/>
+        <v>3.1710000000000127E-2</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="2"/>
+        <v>4.1185992187727116E-2</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="2"/>
+        <v>6.073345609112657E-3</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="2"/>
+        <v>2.1344910735931366E-2</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="2"/>
+        <v>4.3941170182117295E-2</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="2"/>
+        <v>4.9074196213472865E-2</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="2"/>
+        <v>5.1880970580157726E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32">
+        <v>6900</v>
+      </c>
+      <c r="M32">
+        <v>9032</v>
+      </c>
+      <c r="N32">
+        <v>6752</v>
+      </c>
+      <c r="O32">
+        <v>6578</v>
+      </c>
+      <c r="P32">
+        <v>6584</v>
+      </c>
+      <c r="Q32">
+        <v>8006</v>
+      </c>
+      <c r="R32">
+        <v>6682</v>
+      </c>
+      <c r="S32">
+        <v>6805</v>
+      </c>
+      <c r="T32">
+        <v>7482</v>
+      </c>
+      <c r="U32">
+        <v>6311</v>
+      </c>
+      <c r="V32">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="33" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="24">
+        <v>958737</v>
+      </c>
+      <c r="M34" s="24">
+        <v>492556</v>
+      </c>
+      <c r="N34" s="24">
+        <v>176937</v>
+      </c>
+      <c r="O34" s="24">
+        <v>649753</v>
+      </c>
+      <c r="P34" s="24">
+        <v>866702</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>197359</v>
+      </c>
+      <c r="R34" s="24">
+        <v>335233</v>
+      </c>
+      <c r="S34" s="24">
+        <v>1188188</v>
+      </c>
+      <c r="T34" s="24">
+        <v>358971</v>
+      </c>
+      <c r="U34" s="24">
+        <v>440751</v>
+      </c>
+      <c r="V34" s="24">
+        <v>763477</v>
+      </c>
+    </row>
+    <row r="35" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35">
+        <v>349829</v>
+      </c>
+      <c r="M35">
+        <v>436615</v>
+      </c>
+      <c r="N35">
+        <v>377239</v>
+      </c>
+      <c r="O35">
+        <v>392796</v>
+      </c>
+      <c r="P35">
+        <v>387528</v>
+      </c>
+      <c r="Q35">
+        <v>302072</v>
+      </c>
+      <c r="R35">
+        <v>299814</v>
+      </c>
+      <c r="S35">
+        <v>405375</v>
+      </c>
+      <c r="T35">
+        <v>-151298</v>
+      </c>
+      <c r="U35">
+        <v>188469</v>
+      </c>
+      <c r="V35">
+        <v>153257</v>
+      </c>
+      <c r="AN35" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO35" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP35" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ35" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR35" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS35" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT35" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU35" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36">
+        <v>199620</v>
+      </c>
+      <c r="M36">
+        <v>85365</v>
+      </c>
+      <c r="N36">
+        <v>248760</v>
+      </c>
+      <c r="O36">
+        <v>481298</v>
+      </c>
+      <c r="P36">
+        <v>582676</v>
+      </c>
+      <c r="Q36">
+        <v>160410</v>
+      </c>
+      <c r="R36">
+        <v>36283</v>
+      </c>
+      <c r="S36">
+        <v>569375</v>
+      </c>
+      <c r="T36">
+        <v>335263</v>
+      </c>
+      <c r="U36">
+        <v>46570</v>
+      </c>
+      <c r="V36">
+        <v>350213</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO36">
+        <v>8.0371930897642496E-3</v>
+      </c>
+      <c r="AP36">
+        <v>-2.1736232767155528E-3</v>
+      </c>
+      <c r="AQ36">
+        <v>0.10846402951108791</v>
+      </c>
+      <c r="AR36">
+        <v>-8.0110425406511032E-3</v>
+      </c>
+      <c r="AS36">
+        <v>-1.8004850406508788E-2</v>
+      </c>
+      <c r="AT36">
+        <v>-2.2550157647116764E-2</v>
+      </c>
+      <c r="AU36">
+        <v>5.1880970580157726E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37">
+        <v>407454</v>
+      </c>
+      <c r="M37">
+        <v>-45301</v>
+      </c>
+      <c r="N37">
+        <v>-453522</v>
+      </c>
+      <c r="O37">
+        <v>-221242</v>
+      </c>
+      <c r="P37">
+        <v>-99920</v>
+      </c>
+      <c r="Q37">
+        <v>-258831</v>
+      </c>
+      <c r="R37">
+        <v>-2955</v>
+      </c>
+      <c r="S37">
+        <v>215127</v>
+      </c>
+      <c r="T37">
+        <v>170017</v>
+      </c>
+      <c r="U37">
+        <v>201053</v>
+      </c>
+      <c r="V37">
+        <v>251033</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO37">
+        <v>3.9414484499905811E-2</v>
+      </c>
+      <c r="AP37">
+        <v>2.3095430591948185E-2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.15380924383810779</v>
+      </c>
+      <c r="AR37">
+        <v>-1.4729273015690048E-2</v>
+      </c>
+      <c r="AS37">
+        <v>2.9534188060117872E-2</v>
+      </c>
+      <c r="AT37">
+        <v>4.1476967083464711E-2</v>
+      </c>
+      <c r="AU37">
+        <v>4.9074196213472865E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38">
+        <v>1835</v>
+      </c>
+      <c r="M38">
+        <v>15877</v>
+      </c>
+      <c r="N38">
+        <v>4460</v>
+      </c>
+      <c r="O38">
+        <v>-3099</v>
+      </c>
+      <c r="P38">
+        <v>-3583</v>
+      </c>
+      <c r="Q38">
+        <v>-6292</v>
+      </c>
+      <c r="R38">
+        <v>2090</v>
+      </c>
+      <c r="S38">
+        <v>-1690</v>
+      </c>
+      <c r="T38">
+        <v>4989</v>
+      </c>
+      <c r="U38">
+        <v>4659</v>
+      </c>
+      <c r="V38">
+        <v>8974</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO38">
+        <v>2.3216056180171529E-2</v>
+      </c>
+      <c r="AP38">
+        <v>1.9668099578072473E-2</v>
+      </c>
+      <c r="AQ38">
+        <v>4.9215658701406539E-2</v>
+      </c>
+      <c r="AR38">
+        <v>3.1239679611094751E-2</v>
+      </c>
+      <c r="AS38">
+        <v>-1.1879185644251944E-2</v>
+      </c>
+      <c r="AT38">
+        <v>-2.3003172353874834E-4</v>
+      </c>
+      <c r="AU38">
+        <v>4.3941170182117295E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="24">
+        <v>1391042</v>
+      </c>
+      <c r="M39" s="24">
+        <v>983522</v>
+      </c>
+      <c r="N39" s="24">
+        <v>632034</v>
+      </c>
+      <c r="O39" s="24">
+        <v>1052068</v>
+      </c>
+      <c r="P39" s="24">
+        <v>1109443</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>503468</v>
+      </c>
+      <c r="R39" s="24">
+        <v>706693</v>
+      </c>
+      <c r="S39" s="24">
+        <v>1546281</v>
+      </c>
+      <c r="T39" s="24">
+        <v>758291</v>
+      </c>
+      <c r="U39" s="24">
+        <v>797960</v>
+      </c>
+      <c r="V39" s="24">
+        <v>1503746</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO39">
+        <v>-1.959247498352723E-2</v>
+      </c>
+      <c r="AP39">
+        <v>-7.9859061811208276E-3</v>
+      </c>
+      <c r="AQ39">
+        <v>-4.0243769675982866E-2</v>
+      </c>
+      <c r="AR39">
+        <v>-8.1731697479603072E-2</v>
+      </c>
+      <c r="AS39">
+        <v>-7.0033736852549433E-3</v>
+      </c>
+      <c r="AT39">
+        <v>1.2631372195722523E-2</v>
+      </c>
+      <c r="AU39">
+        <v>2.1344910735931366E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40">
+        <v>264039</v>
+      </c>
+      <c r="M40">
+        <v>263499</v>
+      </c>
+      <c r="N40">
+        <v>250343</v>
+      </c>
+      <c r="O40">
+        <v>288131</v>
+      </c>
+      <c r="P40">
+        <v>251857</v>
+      </c>
+      <c r="Q40">
+        <v>511434</v>
+      </c>
+      <c r="R40">
+        <v>474388</v>
+      </c>
+      <c r="S40">
+        <v>366996</v>
+      </c>
+      <c r="T40">
+        <v>261480</v>
+      </c>
+      <c r="U40">
+        <v>351629</v>
+      </c>
+      <c r="V40">
+        <v>212396</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO40">
+        <v>-9.9545256575330754E-3</v>
+      </c>
+      <c r="AP40">
+        <v>-5.4104430075831988E-3</v>
+      </c>
+      <c r="AQ40">
+        <v>6.6823748029190888E-2</v>
+      </c>
+      <c r="AR40">
+        <v>-4.6337856545160871E-2</v>
+      </c>
+      <c r="AS40">
+        <v>-5.8330119077095732E-3</v>
+      </c>
+      <c r="AT40">
+        <v>5.2506095029497102E-2</v>
+      </c>
+      <c r="AU40">
+        <v>6.073345609112657E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41">
+        <v>820434</v>
+      </c>
+      <c r="M41">
+        <v>311626</v>
+      </c>
+      <c r="N41">
+        <v>747017</v>
+      </c>
+      <c r="O41">
+        <v>511987</v>
+      </c>
+      <c r="P41">
+        <v>697607</v>
+      </c>
+      <c r="Q41">
+        <v>213910</v>
+      </c>
+      <c r="R41">
+        <v>231265</v>
+      </c>
+      <c r="S41">
+        <v>790796</v>
+      </c>
+      <c r="T41">
+        <v>303075</v>
+      </c>
+      <c r="U41">
+        <v>179980</v>
+      </c>
+      <c r="V41">
+        <v>759972</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO41">
+        <v>3.068991541454702E-2</v>
+      </c>
+      <c r="AP41">
+        <v>1.1367094002269651E-2</v>
+      </c>
+      <c r="AQ41">
+        <v>0.13936305778667202</v>
+      </c>
+      <c r="AR41">
+        <v>3.6658758347207776E-2</v>
+      </c>
+      <c r="AS41">
+        <v>6.4114846786564872E-3</v>
+      </c>
+      <c r="AT41">
+        <v>9.1531448200495635E-2</v>
+      </c>
+      <c r="AU41">
+        <v>4.1185992187727116E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42">
+        <v>306569</v>
+      </c>
+      <c r="M42">
+        <v>408397</v>
+      </c>
+      <c r="N42">
+        <v>-365327</v>
+      </c>
+      <c r="O42">
+        <v>251949</v>
+      </c>
+      <c r="P42">
+        <v>159979</v>
+      </c>
+      <c r="Q42">
+        <v>-221876</v>
+      </c>
+      <c r="R42">
+        <v>1040</v>
+      </c>
+      <c r="S42">
+        <v>388489</v>
+      </c>
+      <c r="T42">
+        <v>193736</v>
+      </c>
+      <c r="U42">
+        <v>266350</v>
+      </c>
+      <c r="V42">
+        <v>531379</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO42">
+        <v>2.027000000000001E-2</v>
+      </c>
+      <c r="AP42">
+        <v>8.9650000000001118E-3</v>
+      </c>
+      <c r="AQ42">
+        <v>0.10333400000000004</v>
+      </c>
+      <c r="AR42">
+        <v>6.3400000000002343E-4</v>
+      </c>
+      <c r="AS42">
+        <v>7.2550000000000114E-3</v>
+      </c>
+      <c r="AT42">
+        <v>7.2462000000000026E-2</v>
+      </c>
+      <c r="AU42">
+        <v>3.1710000000000127E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43">
+        <v>-14076</v>
+      </c>
+      <c r="M43">
+        <v>-35006</v>
+      </c>
+      <c r="N43">
+        <v>7064</v>
+      </c>
+      <c r="O43">
+        <v>2222</v>
+      </c>
+      <c r="P43">
+        <v>-54335</v>
+      </c>
+      <c r="Q43">
+        <v>-27035</v>
+      </c>
+      <c r="R43">
+        <v>7827</v>
+      </c>
+      <c r="S43">
+        <v>23998</v>
+      </c>
+      <c r="T43">
+        <v>-20404</v>
+      </c>
+      <c r="U43">
+        <v>-38340</v>
+      </c>
+      <c r="V43">
+        <v>-3297</v>
+      </c>
+    </row>
+    <row r="44" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" t="s">
+        <v>33</v>
+      </c>
+      <c r="V44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45">
+        <v>-7481</v>
+      </c>
+      <c r="M45">
+        <v>-61650</v>
+      </c>
+      <c r="N45">
+        <v>-30849</v>
+      </c>
+      <c r="O45">
+        <v>-56681</v>
+      </c>
+      <c r="P45">
+        <v>77278</v>
+      </c>
+      <c r="Q45">
+        <v>82151</v>
+      </c>
+      <c r="R45">
+        <v>37838</v>
+      </c>
+      <c r="S45">
+        <v>18779</v>
+      </c>
+      <c r="T45">
+        <v>34165</v>
+      </c>
+      <c r="U45">
+        <v>90921</v>
+      </c>
+      <c r="V45">
+        <v>-90326</v>
+      </c>
+    </row>
+    <row r="46" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" t="s">
+        <v>75</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>75</v>
+      </c>
+      <c r="R46" t="s">
+        <v>75</v>
+      </c>
+      <c r="S46" t="s">
+        <v>75</v>
+      </c>
+      <c r="T46" t="s">
+        <v>75</v>
+      </c>
+      <c r="U46" t="s">
+        <v>75</v>
+      </c>
+      <c r="V46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" t="s">
+        <v>33</v>
+      </c>
+      <c r="T47" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="10:47" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48">
+        <v>-432009</v>
+      </c>
+      <c r="M48">
+        <v>-455302</v>
+      </c>
+      <c r="N48">
+        <v>-418115</v>
+      </c>
+      <c r="O48">
+        <v>-336854</v>
+      </c>
+      <c r="P48">
+        <v>-367819</v>
+      </c>
+      <c r="Q48">
+        <v>-407355</v>
+      </c>
+      <c r="R48">
+        <v>-394865</v>
+      </c>
+      <c r="S48">
+        <v>-365269</v>
+      </c>
+      <c r="T48">
+        <v>-449693</v>
+      </c>
+      <c r="U48">
+        <v>-480226</v>
+      </c>
+      <c r="V48">
+        <v>-647210</v>
+      </c>
+    </row>
+    <row r="49" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>118</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49">
+        <v>-503087</v>
+      </c>
+      <c r="M49">
+        <v>-554522</v>
+      </c>
+      <c r="N49">
+        <v>-525906</v>
+      </c>
+      <c r="O49">
+        <v>-446829</v>
+      </c>
+      <c r="P49">
+        <v>-484144</v>
+      </c>
+      <c r="Q49">
+        <v>-491261</v>
+      </c>
+      <c r="R49">
+        <v>-481169</v>
+      </c>
+      <c r="S49">
+        <v>-513791</v>
+      </c>
+      <c r="T49">
+        <v>-579937</v>
+      </c>
+      <c r="U49">
+        <v>-576865</v>
+      </c>
+      <c r="V49">
+        <v>-681700</v>
+      </c>
+    </row>
+    <row r="50" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50">
+        <v>-648671</v>
+      </c>
+      <c r="M50">
+        <v>-740999</v>
+      </c>
+      <c r="N50">
+        <v>-741119</v>
+      </c>
+      <c r="O50">
+        <v>-700539</v>
+      </c>
+      <c r="P50">
+        <v>-749917</v>
+      </c>
+      <c r="Q50">
+        <v>-761868</v>
+      </c>
+      <c r="R50">
+        <v>-749801</v>
+      </c>
+      <c r="S50">
+        <v>-799343</v>
+      </c>
+      <c r="T50">
+        <v>-880301</v>
+      </c>
+      <c r="U50">
+        <v>-864331</v>
+      </c>
+      <c r="V50">
+        <v>-915570</v>
+      </c>
+    </row>
+    <row r="51" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K51" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51">
+        <v>145584</v>
+      </c>
+      <c r="M51">
+        <v>186477</v>
+      </c>
+      <c r="N51">
+        <v>215213</v>
+      </c>
+      <c r="O51">
+        <v>253710</v>
+      </c>
+      <c r="P51">
+        <v>265773</v>
+      </c>
+      <c r="Q51">
+        <v>270607</v>
+      </c>
+      <c r="R51">
+        <v>268632</v>
+      </c>
+      <c r="S51">
+        <v>285552</v>
+      </c>
+      <c r="T51">
+        <v>300364</v>
+      </c>
+      <c r="U51">
+        <v>287466</v>
+      </c>
+      <c r="V51">
+        <v>233870</v>
+      </c>
+    </row>
+    <row r="52" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52">
+        <v>169911</v>
+      </c>
+      <c r="M52">
+        <v>202431</v>
+      </c>
+      <c r="N52">
+        <v>197925</v>
+      </c>
+      <c r="O52">
+        <v>195520</v>
+      </c>
+      <c r="P52">
+        <v>200303</v>
+      </c>
+      <c r="Q52">
+        <v>185376</v>
+      </c>
+      <c r="R52">
+        <v>197021</v>
+      </c>
+      <c r="S52">
+        <v>257793</v>
+      </c>
+      <c r="T52">
+        <v>251174</v>
+      </c>
+      <c r="U52">
+        <v>236344</v>
+      </c>
+      <c r="V52">
+        <v>181574</v>
+      </c>
+    </row>
+    <row r="53" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>122</v>
+      </c>
+      <c r="K53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L53">
+        <v>-98834</v>
+      </c>
+      <c r="M53">
+        <v>-103211</v>
+      </c>
+      <c r="N53">
+        <v>-90134</v>
+      </c>
+      <c r="O53">
+        <v>-85545</v>
+      </c>
+      <c r="P53">
+        <v>-83978</v>
+      </c>
+      <c r="Q53">
+        <v>-101470</v>
+      </c>
+      <c r="R53">
+        <v>-110716</v>
+      </c>
+      <c r="S53">
+        <v>-109272</v>
+      </c>
+      <c r="T53">
+        <v>-120931</v>
+      </c>
+      <c r="U53">
+        <v>-139705</v>
+      </c>
+      <c r="V53">
+        <v>-147084</v>
+      </c>
+    </row>
+    <row r="54" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L54">
+        <v>-6891</v>
+      </c>
+      <c r="M54">
+        <v>-9020</v>
+      </c>
+      <c r="N54">
+        <v>931</v>
+      </c>
+      <c r="O54">
+        <v>-6559</v>
+      </c>
+      <c r="P54">
+        <v>-6535</v>
+      </c>
+      <c r="Q54">
+        <v>-7940</v>
+      </c>
+      <c r="R54">
+        <v>-6606</v>
+      </c>
+      <c r="S54">
+        <v>12394</v>
+      </c>
+      <c r="T54">
+        <v>-4196</v>
+      </c>
+      <c r="U54">
+        <v>-6244</v>
+      </c>
+      <c r="V54">
+        <v>-6030</v>
+      </c>
+    </row>
+    <row r="55" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55">
+        <v>-438900</v>
+      </c>
+      <c r="M55">
+        <v>-464322</v>
+      </c>
+      <c r="N55">
+        <v>-417184</v>
+      </c>
+      <c r="O55">
+        <v>-343412</v>
+      </c>
+      <c r="P55">
+        <v>-374354</v>
+      </c>
+      <c r="Q55">
+        <v>-415295</v>
+      </c>
+      <c r="R55">
+        <v>-401471</v>
+      </c>
+      <c r="S55">
+        <v>-352875</v>
+      </c>
+      <c r="T55">
+        <v>-453890</v>
+      </c>
+      <c r="U55">
+        <v>-486470</v>
+      </c>
+      <c r="V55">
+        <v>-653240</v>
+      </c>
+    </row>
+    <row r="56" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56">
+        <v>-446381</v>
+      </c>
+      <c r="M56">
+        <v>-525972</v>
+      </c>
+      <c r="N56">
+        <v>-448032</v>
+      </c>
+      <c r="O56">
+        <v>-400093</v>
+      </c>
+      <c r="P56">
+        <v>-297076</v>
+      </c>
+      <c r="Q56">
+        <v>-333144</v>
+      </c>
+      <c r="R56">
+        <v>-363633</v>
+      </c>
+      <c r="S56">
+        <v>-334095</v>
+      </c>
+      <c r="T56">
+        <v>-419724</v>
+      </c>
+      <c r="U56">
+        <v>-395549</v>
+      </c>
+      <c r="V56">
+        <v>-743566</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="AN35:AU35" xr:uid="{D2B83C11-D6B4-40F6-AAF1-B6240FB9BC65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AN36:AU42">
+      <sortCondition descending="1" ref="AN35"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{E2E6EA0D-8040-4674-A150-D71088DB2613}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{29EA85C7-48BF-4285-8D64-E7661E209D81}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/raw_data/Macroeconomic data.xlsx
+++ b/raw_data/Macroeconomic data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Rauhut\Documents\GitHub\MachineLearning\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC215C2-16B6-485E-8E8D-64643FEC7555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82DD54-16D2-4BFC-8E29-97D485898779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="205">
   <si>
     <t>Date</t>
   </si>
@@ -657,6 +657,30 @@
   <si>
     <t>Total Index Industrial Production</t>
   </si>
+  <si>
+    <t>Lagging Indicators</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, 1 year ago</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, 2 years ago</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, 3 years ago</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, 4 years ago</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, 5 years ago</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, Avg. last 5 years</t>
+  </si>
+  <si>
+    <t>S&amp;P 500, Avg. last 3 years</t>
+  </si>
 </sst>
 </file>
 
@@ -864,7 +888,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1438,7 @@
     <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1437,67 +1467,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="21" xfId="43" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1507,14 +1540,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,6 +1577,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,17 +1595,21 @@
     <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1884,19 +1940,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC481A8-9977-41FE-9BCC-DED112F8D8EE}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+    <col min="2" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1915,30 +1972,38 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.35">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1957,8 +2022,12 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1977,8 +2046,12 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1997,8 +2070,12 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2017,8 +2094,12 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>22</v>
@@ -2038,9 +2119,13 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2059,110 +2144,134 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2181,8 +2290,12 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2201,8 +2314,12 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="10" t="s">
         <v>186</v>
@@ -2222,9 +2339,13 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -2243,383 +2364,451 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="57" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="68" t="str">
-        <f>'Macroeconomic Values'!G1</f>
-        <v>Uncertainty About GDP Growth - Broadly Similar</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="48" t="str">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="76" t="str">
+        <f>'Macroeconomic Values'!O1</f>
+        <v>Exports of goods, services and income receipts</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="76" t="str">
         <f>'Macroeconomic Values'!D1</f>
         <v>Job Quality Index (JQI)</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49" t="str">
-        <f>'Macroeconomic Values'!O1</f>
-        <v>Exports of goods, services and income receipts</v>
-      </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="39" t="str">
+        <f>'Macroeconomic Values'!AA1</f>
+        <v>S&amp;P 500, 1 year ago</v>
+      </c>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="51" t="str">
+      <c r="B20" s="60" t="str">
         <f>'Macroeconomic Values'!E1</f>
         <v>Consumer Price Index (yoy %)</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="71" t="str">
-        <f>'Macroeconomic Values'!H1</f>
-        <v>Risks to GDP Growth - Broadly Balance</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="51" t="str">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="60" t="str">
+        <f>'Macroeconomic Values'!T1</f>
+        <v>Total Index Industrial Production</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="60" t="str">
         <f>'Macroeconomic Values'!F1</f>
         <v>Unemployment Rate</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="51" t="str">
-        <f>'Macroeconomic Values'!T1</f>
-        <v>Total Index Industrial Production</v>
-      </c>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="39" t="str">
+        <f>'Macroeconomic Values'!AB1</f>
+        <v>S&amp;P 500, 2 years ago</v>
+      </c>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="71" t="str">
-        <f>'Macroeconomic Values'!I1</f>
-        <v>Optimism Index</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="51" t="str">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="60" t="str">
+        <f>'Macroeconomic Values'!U1</f>
+        <v>Manufacturing</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="60" t="str">
         <f>'Other Ressources'!Z13</f>
         <v>Personal income (millions of dollars)</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52" t="str">
-        <f>'Macroeconomic Values'!U1</f>
-        <v>Manufacturing</v>
-      </c>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="39" t="str">
+        <f>'Macroeconomic Values'!AC1</f>
+        <v>S&amp;P 500, 3 years ago</v>
+      </c>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="51" t="str">
+      <c r="B22" s="60" t="str">
         <f>'Macroeconomic Values'!J1</f>
         <v>M2</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="51" t="str">
-        <f>'Macroeconomic Values'!K1</f>
-        <v>OECD Leading Indicator (12-mo % chg)</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52" t="str">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="61" t="str">
         <f>'Macroeconomic Values'!V1</f>
         <v>Oil and gas extraction</v>
       </c>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="str">
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="39" t="str">
+        <f>'Macroeconomic Values'!AD1</f>
+        <v>S&amp;P 500, 4 years ago</v>
+      </c>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="str">
         <f>'Macroeconomic Values'!L1</f>
         <v>Fed Funds Rate (%)</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52" t="str">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="61" t="str">
         <f>'Macroeconomic Values'!W1</f>
         <v>Mining (except oil and gas)</v>
       </c>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="str">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="R23" s="39" t="str">
+        <f>'Macroeconomic Values'!AE1</f>
+        <v>S&amp;P 500, 5 years ago</v>
+      </c>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="60" t="str">
         <f>'Macroeconomic Values'!M1</f>
         <v>3-Month T-Bill Rate (%)</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52" t="str">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="61" t="str">
         <f>'Macroeconomic Values'!X1</f>
         <v>Electric power generation</v>
       </c>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="str">
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="R24" s="39" t="str">
+        <f>'Macroeconomic Values'!AF1</f>
+        <v>S&amp;P 500, Avg. last 3 years</v>
+      </c>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="41"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="60" t="str">
         <f>'Macroeconomic Values'!N1</f>
         <v>10-Year Treasury Yield (%)</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52" t="str">
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="61" t="str">
         <f>'Macroeconomic Values'!Y1</f>
         <v>Motor vehicles and parts</v>
       </c>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52" t="str">
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="R25" s="39" t="str">
+        <f>'Macroeconomic Values'!AG1</f>
+        <v>S&amp;P 500, Avg. last 5 years</v>
+      </c>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="41"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="61" t="str">
         <f>'Macroeconomic Values'!Z1</f>
         <v>Computer and electronic product</v>
       </c>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="41"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="41"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="41"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="41"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="63">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="J26:M26"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J22:M22"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B9:U13"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
     <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B9:Q13"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2627,11 +2816,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFDE01-A750-499E-BC0B-25C862978AFB}">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,101 +2840,118 @@
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="20" t="str">
         <f>'Drawn Data Bloomberg'!V12</f>
         <v>Unemployment Rate</v>
       </c>
-      <c r="G1" s="66" t="str">
+      <c r="G1" s="33" t="str">
         <f>'Drawn Data Bloomberg'!W12</f>
         <v>Uncertainty About GDP Growth - Broadly Similar</v>
       </c>
-      <c r="H1" s="66" t="str">
+      <c r="H1" s="33" t="str">
         <f>'Drawn Data Bloomberg'!X12</f>
         <v>Risks to GDP Growth - Broadly Balance</v>
       </c>
-      <c r="I1" s="66" t="str">
+      <c r="I1" s="33" t="str">
         <f>'Drawn Data Bloomberg'!Y12</f>
         <v>Optimism Index</v>
       </c>
-      <c r="J1" s="67" t="str">
+      <c r="J1" s="34" t="str">
         <f>'Drawn Data Bloomberg'!Z12</f>
         <v>M2</v>
       </c>
-      <c r="K1" s="66" t="str">
+      <c r="K1" s="33" t="str">
         <f>'Drawn Data Bloomberg'!AA12</f>
         <v>OECD Leading Indicator (12-mo % chg)</v>
       </c>
-      <c r="L1" s="67" t="str">
+      <c r="L1" s="34" t="str">
         <f>'Drawn Data Bloomberg'!AB12</f>
         <v>Fed Funds Rate (%)</v>
       </c>
-      <c r="M1" s="67" t="str">
+      <c r="M1" s="34" t="str">
         <f>'Drawn Data Bloomberg'!AC12</f>
         <v>3-Month T-Bill Rate (%)</v>
       </c>
-      <c r="N1" s="67" t="str">
+      <c r="N1" s="34" t="str">
         <f>'Drawn Data Bloomberg'!AD12</f>
         <v>10-Year Treasury Yield (%)</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="T1" s="74" t="str" cm="1">
+      <c r="T1" s="35" t="str" cm="1">
         <f t="array" ref="T1:Z1">'Other Ressources'!AO35:AU35</f>
         <v>Total Index Industrial Production</v>
       </c>
-      <c r="U1" s="74" t="str">
+      <c r="U1" s="35" t="str">
         <v>Manufacturing</v>
       </c>
-      <c r="V1" s="74" t="str">
+      <c r="V1" s="35" t="str">
         <v>Oil and gas extraction</v>
       </c>
-      <c r="W1" s="74" t="str">
+      <c r="W1" s="35" t="str">
         <v>Mining (except oil and gas)</v>
       </c>
-      <c r="X1" s="74" t="str">
+      <c r="X1" s="35" t="str">
         <v>Electric power generation</v>
       </c>
-      <c r="Y1" s="74" t="str">
+      <c r="Y1" s="35" t="str">
         <v>Motor vehicles and parts</v>
       </c>
-      <c r="Z1" s="74" t="str">
+      <c r="Z1" s="35" t="str">
         <v>Computer and electronic product</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA1" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44196</v>
       </c>
@@ -2820,8 +3026,36 @@
         <f>'Other Ressources'!AL15</f>
         <v>59729</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA2" s="16">
+        <f>'Other Ressources'!C15</f>
+        <v>0.2888</v>
+      </c>
+      <c r="AB2" s="16">
+        <f>'Other Ressources'!C16</f>
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="AC2" s="16">
+        <f>'Other Ressources'!C17</f>
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="AD2" s="16">
+        <f>'Other Ressources'!C18</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AE2" s="16">
+        <f>'Other Ressources'!C19</f>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AF2" s="16">
+        <f>AVERAGE('Other Ressources'!C15:C17)</f>
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="AG2" s="16">
+        <f>AVERAGE('Other Ressources'!C15:C19)</f>
+        <v>0.10174000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43830</v>
       </c>
@@ -2924,8 +3158,36 @@
         <f>'Other Ressources'!AU36</f>
         <v>5.1880970580157726E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA3" s="16">
+        <f>'Other Ressources'!C16</f>
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="AB3" s="16">
+        <f>'Other Ressources'!C17</f>
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="AC3" s="16">
+        <f>'Other Ressources'!C18</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AD3" s="16">
+        <f>'Other Ressources'!C19</f>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AE3" s="16">
+        <f>'Other Ressources'!C20</f>
+        <v>0.1139</v>
+      </c>
+      <c r="AF3" s="16">
+        <f>AVERAGE('Other Ressources'!C16:C18)</f>
+        <v>7.5733333333333333E-2</v>
+      </c>
+      <c r="AG3" s="16">
+        <f>AVERAGE('Other Ressources'!C16:C20)</f>
+        <v>6.676E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43465</v>
       </c>
@@ -3028,8 +3290,36 @@
         <f>'Other Ressources'!AU37</f>
         <v>4.9074196213472865E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA4" s="16">
+        <f>'Other Ressources'!C17</f>
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="AB4" s="16">
+        <f>'Other Ressources'!C18</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AC4" s="16">
+        <f>'Other Ressources'!C19</f>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AD4" s="16">
+        <f>'Other Ressources'!C20</f>
+        <v>0.1139</v>
+      </c>
+      <c r="AE4" s="16">
+        <f>'Other Ressources'!C21</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AF4" s="16">
+        <f>AVERAGE('Other Ressources'!C17:C19)</f>
+        <v>9.4100000000000017E-2</v>
+      </c>
+      <c r="AG4" s="16">
+        <f>AVERAGE('Other Ressources'!C17:C21)</f>
+        <v>0.13844000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43100</v>
       </c>
@@ -3132,8 +3422,36 @@
         <f>'Other Ressources'!AU38</f>
         <v>4.3941170182117295E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="16">
+        <f>'Other Ressources'!C18</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AB5" s="16">
+        <f>'Other Ressources'!C19</f>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AC5" s="16">
+        <f>'Other Ressources'!C20</f>
+        <v>0.1139</v>
+      </c>
+      <c r="AD5" s="16">
+        <f>'Other Ressources'!C21</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AE5" s="16">
+        <f>'Other Ressources'!C22</f>
+        <v>0.1341</v>
+      </c>
+      <c r="AF5" s="16">
+        <f>AVERAGE('Other Ressources'!C18:C20)</f>
+        <v>6.7333333333333342E-2</v>
+      </c>
+      <c r="AG5" s="16">
+        <f>AVERAGE('Other Ressources'!C18:C22)</f>
+        <v>0.12642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42735</v>
       </c>
@@ -3236,8 +3554,36 @@
         <f>'Other Ressources'!AU39</f>
         <v>2.1344910735931366E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA6" s="16">
+        <f>'Other Ressources'!C19</f>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AB6" s="16">
+        <f>'Other Ressources'!C20</f>
+        <v>0.1139</v>
+      </c>
+      <c r="AC6" s="16">
+        <f>'Other Ressources'!C21</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AD6" s="16">
+        <f>'Other Ressources'!C22</f>
+        <v>0.1341</v>
+      </c>
+      <c r="AE6" s="16">
+        <f>'Other Ressources'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="16">
+        <f>AVERAGE('Other Ressources'!C19:C21)</f>
+        <v>0.13419999999999999</v>
+      </c>
+      <c r="AG6" s="16">
+        <f>AVERAGE('Other Ressources'!C19:C23)</f>
+        <v>0.10733999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42369</v>
       </c>
@@ -3340,8 +3686,36 @@
         <f>'Other Ressources'!AU40</f>
         <v>6.073345609112657E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA7" s="16">
+        <f>'Other Ressources'!C20</f>
+        <v>0.1139</v>
+      </c>
+      <c r="AB7" s="16">
+        <f>'Other Ressources'!C21</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AC7" s="16">
+        <f>'Other Ressources'!C22</f>
+        <v>0.1341</v>
+      </c>
+      <c r="AD7" s="16">
+        <f>'Other Ressources'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <f>'Other Ressources'!C24</f>
+        <v>0.1278</v>
+      </c>
+      <c r="AF7" s="16">
+        <f>AVERAGE('Other Ressources'!C20:C22)</f>
+        <v>0.18133333333333335</v>
+      </c>
+      <c r="AG7" s="16">
+        <f>AVERAGE('Other Ressources'!C20:C24)</f>
+        <v>0.13436000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42004</v>
       </c>
@@ -3444,8 +3818,36 @@
         <f>'Other Ressources'!AU41</f>
         <v>4.1185992187727116E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA8" s="16">
+        <f>'Other Ressources'!C21</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AB8" s="16">
+        <f>'Other Ressources'!C22</f>
+        <v>0.1341</v>
+      </c>
+      <c r="AC8" s="16">
+        <f>'Other Ressources'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <f>'Other Ressources'!C24</f>
+        <v>0.1278</v>
+      </c>
+      <c r="AE8" s="16">
+        <f>'Other Ressources'!C25</f>
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AF8" s="16">
+        <f>AVERAGE('Other Ressources'!C21:C23)</f>
+        <v>0.14336666666666667</v>
+      </c>
+      <c r="AG8" s="16">
+        <f>AVERAGE('Other Ressources'!C21:C25)</f>
+        <v>0.15848000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>41639</v>
       </c>
@@ -3548,8 +3950,36 @@
         <f>'Other Ressources'!AU42</f>
         <v>3.1710000000000127E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA9" s="16">
+        <f>'Other Ressources'!C22</f>
+        <v>0.1341</v>
+      </c>
+      <c r="AB9" s="16">
+        <f>'Other Ressources'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <f>'Other Ressources'!C24</f>
+        <v>0.1278</v>
+      </c>
+      <c r="AD9" s="16">
+        <f>'Other Ressources'!C25</f>
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AE9" s="16">
+        <f>'Other Ressources'!C26</f>
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="AF9" s="16">
+        <f>AVERAGE('Other Ressources'!C22:C24)</f>
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="AG9" s="16">
+        <f>AVERAGE('Other Ressources'!C22:C26)</f>
+        <v>2.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>41274</v>
       </c>
@@ -3624,10 +4054,32 @@
         <f>'Other Ressources'!AE15</f>
         <v>44851</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA10" s="16">
+        <f>'Other Ressources'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <f>'Other Ressources'!C24</f>
+        <v>0.1278</v>
+      </c>
+      <c r="AC10" s="16">
+        <f>'Other Ressources'!C25</f>
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AD10" s="16">
+        <f>'Other Ressources'!C26</f>
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16">
+        <f>AVERAGE('Other Ressources'!C23:C25)</f>
+        <v>0.12076666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="3"/>
+      <c r="AA15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3638,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AD3666"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3668,16 +4120,16 @@
       <c r="S10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AB11" s="38" t="s">
+      <c r="AB11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -49401,8 +49853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4E00F2-501C-4F63-B6B1-DCAC4514FD8D}">
   <dimension ref="A4:BA56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH41" sqref="AH41"/>
+    <sheetView showGridLines="0" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49481,13 +49933,13 @@
       <c r="X10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="15" t="s">
         <v>140</v>
       </c>
       <c r="AN10" t="s">
         <v>28</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="15" t="s">
         <v>144</v>
       </c>
     </row>
@@ -49576,46 +50028,46 @@
       <c r="AL12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AN12" s="43" t="s">
+      <c r="AN12" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AO12" s="43" t="s">
+      <c r="AO12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AP12" s="43" t="s">
+      <c r="AP12" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AQ12" s="43" t="s">
+      <c r="AQ12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AR12" s="43" t="s">
+      <c r="AR12" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AS12" s="43" t="s">
+      <c r="AS12" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AT12" s="43" t="s">
+      <c r="AT12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AU12" s="43" t="s">
+      <c r="AU12" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AV12" s="43" t="s">
+      <c r="AV12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AW12" s="43" t="s">
+      <c r="AW12" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AX12" s="43" t="s">
+      <c r="AX12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AY12" s="43" t="s">
+      <c r="AY12" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AZ12" s="43" t="s">
+      <c r="AZ12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="BA12" s="43" t="s">
+      <c r="BA12" s="28" t="s">
         <v>135</v>
       </c>
     </row>
@@ -49710,46 +50162,46 @@
       <c r="AL13">
         <v>19679715.100000001</v>
       </c>
-      <c r="AN13" s="42" t="s">
+      <c r="AN13" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AO13" s="42" t="s">
+      <c r="AO13" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="AP13" s="42">
+      <c r="AP13" s="27">
         <v>1</v>
       </c>
-      <c r="AQ13" s="42" t="s">
+      <c r="AQ13" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AR13" s="42" t="s">
+      <c r="AR13" s="27" t="s">
         <v>154</v>
       </c>
       <c r="AS13" t="s">
         <v>155</v>
       </c>
-      <c r="AT13" s="42">
+      <c r="AT13" s="27">
         <v>100</v>
       </c>
-      <c r="AU13" s="42">
+      <c r="AU13" s="27">
         <v>102.027</v>
       </c>
-      <c r="AV13" s="42">
+      <c r="AV13" s="27">
         <v>105.15819999999999</v>
       </c>
-      <c r="AW13" s="42">
+      <c r="AW13" s="27">
         <v>104.1114</v>
       </c>
-      <c r="AX13" s="42">
+      <c r="AX13" s="27">
         <v>102.0716</v>
       </c>
-      <c r="AY13" s="42">
+      <c r="AY13" s="27">
         <v>104.4413</v>
       </c>
-      <c r="AZ13" s="42">
+      <c r="AZ13" s="27">
         <v>108.5578</v>
       </c>
-      <c r="BA13" s="42">
+      <c r="BA13" s="27">
         <v>109.4303</v>
       </c>
     </row>
@@ -49844,46 +50296,46 @@
       <c r="AL14">
         <v>329484123</v>
       </c>
-      <c r="AN14" s="44" t="s">
+      <c r="AN14" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AO14" s="44" t="s">
+      <c r="AO14" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="AP14" s="44">
+      <c r="AP14" s="29">
         <v>1</v>
       </c>
-      <c r="AQ14" s="44" t="s">
+      <c r="AQ14" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AR14" s="44" t="s">
+      <c r="AR14" s="29" t="s">
         <v>157</v>
       </c>
       <c r="AS14" t="s">
         <v>158</v>
       </c>
-      <c r="AT14" s="44">
+      <c r="AT14" s="29">
         <v>100</v>
       </c>
-      <c r="AU14" s="44">
+      <c r="AU14" s="29">
         <v>100.8965</v>
       </c>
-      <c r="AV14" s="44">
+      <c r="AV14" s="29">
         <v>102.04340000000001</v>
       </c>
-      <c r="AW14" s="44">
+      <c r="AW14" s="29">
         <v>101.4913</v>
       </c>
-      <c r="AX14" s="44">
+      <c r="AX14" s="29">
         <v>100.6808</v>
       </c>
-      <c r="AY14" s="44">
+      <c r="AY14" s="29">
         <v>102.661</v>
       </c>
-      <c r="AZ14" s="44">
+      <c r="AZ14" s="29">
         <v>105.032</v>
       </c>
-      <c r="BA14" s="44">
+      <c r="BA14" s="29">
         <v>104.80370000000001</v>
       </c>
     </row>
@@ -49978,46 +50430,46 @@
       <c r="AL15">
         <v>59729</v>
       </c>
-      <c r="AN15" s="45" t="s">
+      <c r="AN15" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="AO15" s="45" t="s">
+      <c r="AO15" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="AP15" s="45">
+      <c r="AP15" s="30">
         <v>1</v>
       </c>
-      <c r="AQ15" s="45" t="s">
+      <c r="AQ15" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="AR15" s="45" t="s">
+      <c r="AR15" s="30" t="s">
         <v>161</v>
       </c>
       <c r="AS15" t="s">
         <v>162</v>
       </c>
-      <c r="AT15" s="45">
+      <c r="AT15" s="30">
         <v>100</v>
       </c>
-      <c r="AU15" s="45">
+      <c r="AU15" s="30">
         <v>110.3334</v>
       </c>
-      <c r="AV15" s="45">
+      <c r="AV15" s="30">
         <v>125.7098</v>
       </c>
-      <c r="AW15" s="45">
+      <c r="AW15" s="30">
         <v>134.11019999999999</v>
       </c>
-      <c r="AX15" s="45">
+      <c r="AX15" s="30">
         <v>128.7131</v>
       </c>
-      <c r="AY15" s="45">
+      <c r="AY15" s="30">
         <v>135.0478</v>
       </c>
-      <c r="AZ15" s="45">
+      <c r="AZ15" s="30">
         <v>155.8194</v>
       </c>
-      <c r="BA15" s="45">
+      <c r="BA15" s="30">
         <v>172.72020000000001</v>
       </c>
     </row>
@@ -50067,46 +50519,46 @@
       <c r="V16">
         <v>1435128</v>
       </c>
-      <c r="AN16" s="46" t="s">
+      <c r="AN16" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="AO16" s="46" t="s">
+      <c r="AO16" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="AP16" s="46">
+      <c r="AP16" s="31">
         <v>1</v>
       </c>
-      <c r="AQ16" s="46" t="s">
+      <c r="AQ16" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="AR16" s="46" t="s">
+      <c r="AR16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="AS16" t="s">
         <v>165</v>
       </c>
-      <c r="AT16" s="46">
+      <c r="AT16" s="31">
         <v>100</v>
       </c>
-      <c r="AU16" s="46">
+      <c r="AU16" s="31">
         <v>100.0634</v>
       </c>
-      <c r="AV16" s="46">
+      <c r="AV16" s="31">
         <v>103.7316</v>
       </c>
-      <c r="AW16" s="46">
+      <c r="AW16" s="31">
         <v>98.924899999999994</v>
       </c>
-      <c r="AX16" s="46">
+      <c r="AX16" s="31">
         <v>90.839600000000004</v>
       </c>
-      <c r="AY16" s="46">
+      <c r="AY16" s="31">
         <v>93.677400000000006</v>
       </c>
-      <c r="AZ16" s="46">
+      <c r="AZ16" s="31">
         <v>92.297600000000003</v>
       </c>
-      <c r="BA16" s="46">
+      <c r="BA16" s="31">
         <v>91.558199999999999</v>
       </c>
     </row>
@@ -50156,46 +50608,46 @@
       <c r="V17">
         <v>692126</v>
       </c>
-      <c r="AN17" s="47" t="s">
+      <c r="AN17" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="AO17" s="47" t="s">
+      <c r="AO17" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="AP17" s="47">
+      <c r="AP17" s="32">
         <v>1</v>
       </c>
-      <c r="AQ17" s="47" t="s">
+      <c r="AQ17" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="AR17" s="47" t="s">
+      <c r="AR17" s="32" t="s">
         <v>167</v>
       </c>
       <c r="AS17" t="s">
         <v>168</v>
       </c>
-      <c r="AT17" s="47">
+      <c r="AT17" s="32">
         <v>100</v>
       </c>
-      <c r="AU17" s="47">
+      <c r="AU17" s="32">
         <v>100.7255</v>
       </c>
-      <c r="AV17" s="47">
+      <c r="AV17" s="32">
         <v>101.37130000000001</v>
       </c>
-      <c r="AW17" s="47">
+      <c r="AW17" s="32">
         <v>100.78</v>
       </c>
-      <c r="AX17" s="47">
+      <c r="AX17" s="32">
         <v>100.0742</v>
       </c>
-      <c r="AY17" s="47">
+      <c r="AY17" s="32">
         <v>98.885400000000004</v>
       </c>
-      <c r="AZ17" s="47">
+      <c r="AZ17" s="32">
         <v>101.80589999999999</v>
       </c>
-      <c r="BA17" s="47">
+      <c r="BA17" s="32">
         <v>99.972899999999996</v>
       </c>
     </row>
@@ -50614,41 +51066,41 @@
       <c r="V24">
         <v>2350698</v>
       </c>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37" t="str">
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26" t="str">
         <f>AT12</f>
         <v>2012</v>
       </c>
-      <c r="AU24" s="37" t="str">
+      <c r="AU24" s="26" t="str">
         <f t="shared" ref="AU24:BA24" si="0">AU12</f>
         <v>2013</v>
       </c>
-      <c r="AV24" s="37" t="str">
+      <c r="AV24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AW24" s="37" t="str">
+      <c r="AW24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AX24" s="37" t="str">
+      <c r="AX24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AY24" s="37" t="str">
+      <c r="AY24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AZ24" s="37" t="str">
+      <c r="AZ24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="BA24" s="37" t="str">
+      <c r="BA24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
@@ -50781,7 +51233,7 @@
         <v>178</v>
       </c>
       <c r="AU26">
-        <f t="shared" ref="AU26:BA32" si="2">AU14/AT14-1</f>
+        <f t="shared" ref="AU26:BA31" si="2">AU14/AT14-1</f>
         <v>8.9650000000001118E-3</v>
       </c>
       <c r="AV26">
@@ -51332,28 +51784,28 @@
       <c r="V35">
         <v>153257</v>
       </c>
-      <c r="AN35" s="37" t="s">
+      <c r="AN35" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="AO35" s="37" t="s">
+      <c r="AO35" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="AP35" s="37" t="s">
+      <c r="AP35" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="AQ35" s="37" t="s">
+      <c r="AQ35" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="AR35" s="37" t="s">
+      <c r="AR35" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="AS35" s="37" t="s">
+      <c r="AS35" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="AT35" s="37" t="s">
+      <c r="AT35" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="AU35" s="37" t="s">
+      <c r="AU35" s="26" t="s">
         <v>183</v>
       </c>
     </row>
@@ -52395,8 +52847,10 @@
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{E2E6EA0D-8040-4674-A150-D71088DB2613}"/>
     <hyperlink ref="K10" r:id="rId2" xr:uid="{29EA85C7-48BF-4285-8D64-E7661E209D81}"/>
+    <hyperlink ref="AO10" r:id="rId3" xr:uid="{D9812F3C-BA06-4259-963C-31DB8D876148}"/>
+    <hyperlink ref="Y10" r:id="rId4" xr:uid="{9A49B6FB-0472-4727-A1F1-38FFBF48B0B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>